--- a/server/templates/template.xlsx
+++ b/server/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -757,6 +757,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>③（Ｆ）人件費を入力する</t>
     </r>
     <r>
@@ -6783,9 +6790,14 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8b045ced-f408-487f-acd2-f0012dd6f47b}" type="VALUE">
+                    <a:fld id="{76e3fe18-ad05-4723-99b8-eef611d0ac94}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
+                    <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7666,9 +7678,14 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7ed30c97-3ee7-431e-8162-ad1525912898}" type="VALUE">
+                    <a:fld id="{f3aa77c1-f829-4874-a584-6f000c39f311}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
+                    <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9835,7 +9852,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4286250" y="3843655"/>
+          <a:off x="4286250" y="3834130"/>
           <a:ext cx="1625600" cy="607695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9961,7 +9978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7211695" y="2729865"/>
+          <a:off x="7211695" y="2720340"/>
           <a:ext cx="2962910" cy="467995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10103,7 +10120,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10212070" y="2729865"/>
+          <a:off x="10212070" y="2720340"/>
           <a:ext cx="558800" cy="467995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10295,7 +10312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="268605" y="2729865"/>
+          <a:off x="268605" y="2720340"/>
           <a:ext cx="462915" cy="485140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10376,7 +10393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10720070" y="7013575"/>
+          <a:off x="10720070" y="7004050"/>
           <a:ext cx="1859280" cy="626110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21873,8 +21890,8 @@
   </sheetPr>
   <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -22082,7 +22099,7 @@
       <c r="S11" s="458"/>
       <c r="T11" s="459"/>
     </row>
-    <row r="12" ht="15.75" spans="2:20">
+    <row r="12" spans="2:20">
       <c r="B12" s="431"/>
       <c r="C12" s="432"/>
       <c r="D12" s="432"/>
@@ -22103,7 +22120,7 @@
     </row>
     <row r="13" ht="18.6" customHeight="1" spans="2:20">
       <c r="B13" s="438">
-        <f>L3*Q3</f>
+        <f>L3*Q3/1000000</f>
         <v>0</v>
       </c>
       <c r="C13" s="439"/>
@@ -24662,7 +24679,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:P2"/>
     </sheetView>
   </sheetViews>

--- a/server/templates/template.xlsx
+++ b/server/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -6790,7 +6790,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76e3fe18-ad05-4723-99b8-eef611d0ac94}" type="VALUE">
+                    <a:fld id="{9138d217-891e-49d2-8955-9ee2cf0b1ccd}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7678,7 +7678,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{f3aa77c1-f829-4874-a584-6f000c39f311}" type="VALUE">
+                    <a:fld id="{98201cbc-3766-4904-bea4-2ff80263918f}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -9730,7 +9730,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1676400" cy="580676"/>
+    <xdr:ext cx="1676400" cy="590201"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
@@ -9739,7 +9739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2643505" y="2698750"/>
-          <a:ext cx="1676400" cy="581025"/>
+          <a:ext cx="1676400" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9787,7 +9787,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>186267</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1964267" cy="580676"/>
+    <xdr:ext cx="1964267" cy="590201"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
@@ -9796,7 +9796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4277360" y="2715895"/>
-          <a:ext cx="1964055" cy="580390"/>
+          <a:ext cx="1964055" cy="589915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9852,7 +9852,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4286250" y="3834130"/>
+          <a:off x="4286250" y="3843655"/>
           <a:ext cx="1625600" cy="607695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9978,7 +9978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7211695" y="2720340"/>
+          <a:off x="7211695" y="2729865"/>
           <a:ext cx="2962910" cy="467995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10120,7 +10120,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10212070" y="2720340"/>
+          <a:off x="10212070" y="2729865"/>
           <a:ext cx="558800" cy="467995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10312,7 +10312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="268605" y="2720340"/>
+          <a:off x="268605" y="2729865"/>
           <a:ext cx="462915" cy="485140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10393,7 +10393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10720070" y="7004050"/>
+          <a:off x="10720070" y="7013575"/>
           <a:ext cx="1859280" cy="626110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13916,8 +13916,8 @@
   </sheetPr>
   <dimension ref="B1:R65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="112">
-        <f>④経費!F12</f>
+        <f>④経費!F4</f>
         <v>0</v>
       </c>
       <c r="H41" s="113"/>
@@ -15459,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="115">
-        <f>④経費!F13</f>
+        <f>④経費!F5</f>
         <v>0</v>
       </c>
       <c r="H42" s="81"/>
@@ -15497,6 +15497,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="115">
+        <f>④経費!F6</f>
         <v>0</v>
       </c>
       <c r="H43" s="81"/>
@@ -15534,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="115">
-        <f>④経費!F15</f>
+        <f>④経費!F7</f>
         <v>0</v>
       </c>
       <c r="H44" s="78"/>
@@ -15574,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="115">
-        <f>④経費!F16</f>
+        <f>④経費!F8</f>
         <v>0</v>
       </c>
       <c r="H45" s="104"/>
@@ -15605,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="115">
-        <f>④経費!F17</f>
+        <f>④経費!F9</f>
         <v>0</v>
       </c>
       <c r="H46" s="78"/>
@@ -15638,7 +15639,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="115">
-        <f>④経費!F18</f>
+        <f>④経費!F10</f>
         <v>0</v>
       </c>
       <c r="H47" s="81"/>
@@ -15660,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="115">
-        <f>④経費!F19</f>
+        <f>④経費!F11</f>
         <v>0</v>
       </c>
       <c r="H48" s="81"/>
@@ -15682,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="115">
-        <f>④経費!F20</f>
+        <f>④経費!F12</f>
         <v>0</v>
       </c>
       <c r="H49" s="81"/>
@@ -21890,7 +21891,7 @@
   </sheetPr>
   <dimension ref="B1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E12"/>
     </sheetView>
   </sheetViews>
@@ -22099,7 +22100,7 @@
       <c r="S11" s="458"/>
       <c r="T11" s="459"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" ht="15.75" spans="2:20">
       <c r="B12" s="431"/>
       <c r="C12" s="432"/>
       <c r="D12" s="432"/>
@@ -24142,7 +24143,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/server/templates/template.xlsx
+++ b/server/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="10"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="341">
   <si>
     <t>会社名</t>
   </si>
@@ -4079,7 +4079,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="651">
+  <cellXfs count="648">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5289,6 +5289,15 @@
     <xf numFmtId="192" fontId="41" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="192" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="192" fontId="38" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -5547,41 +5556,16 @@
     <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -6790,7 +6774,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9138d217-891e-49d2-8955-9ee2cf0b1ccd}" type="VALUE">
+                    <a:fld id="{2a91583e-8a12-4cd6-a538-adf9ecb93c9a}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7678,7 +7662,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98201cbc-3766-4904-bea4-2ff80263918f}" type="VALUE">
+                    <a:fld id="{7941e1b3-51c9-4c34-b29a-b149c9eca744}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -9965,63 +9949,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>263313</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2963333" cy="468013"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7211695" y="2729865"/>
-          <a:ext cx="2962910" cy="467995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" kern="1200"/>
-            <a:t>V</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" kern="1200"/>
-            <a:t>（ヴァリアブル）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>668866</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -10100,59 +10027,6 @@
             <a:t>　 </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="558800" cy="468013"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10212070" y="2729865"/>
-          <a:ext cx="558800" cy="467995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" kern="1200"/>
-            <a:t>Q</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10539,7 +10413,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="339090" y="841375"/>
+          <a:off x="339090" y="831850"/>
           <a:ext cx="558800" cy="391795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10579,12 +10453,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596265</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="558800" cy="391813"/>
+    <xdr:ext cx="643890" cy="496570"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
@@ -10592,8 +10466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2646680" y="824865"/>
-          <a:ext cx="558800" cy="391795"/>
+          <a:off x="2642870" y="815340"/>
+          <a:ext cx="643890" cy="496570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10645,7 +10519,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2663190" y="2765425"/>
+          <a:off x="2663190" y="2755900"/>
           <a:ext cx="558800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10698,7 +10572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4423410" y="2774315"/>
+          <a:off x="4423410" y="2764790"/>
           <a:ext cx="558800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10751,7 +10625,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4406900" y="3927475"/>
+          <a:off x="4406900" y="3908425"/>
           <a:ext cx="558800" cy="467995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10804,7 +10678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7592695" y="824865"/>
+          <a:off x="7592695" y="815340"/>
           <a:ext cx="558800" cy="391795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10856,59 +10730,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="558800" cy="468013"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7592695" y="2796540"/>
-          <a:ext cx="558800" cy="467995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" kern="1200"/>
-            <a:t>V</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -10922,7 +10743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10742930" y="824865"/>
+          <a:off x="10742930" y="815340"/>
           <a:ext cx="558800" cy="391795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10982,59 +10803,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="558800" cy="468013"/>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10742930" y="2796540"/>
-          <a:ext cx="558800" cy="467995"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" kern="1200"/>
-            <a:t>Q</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>524932</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -11048,7 +10816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="770890" y="892175"/>
+          <a:off x="770890" y="882650"/>
           <a:ext cx="617855" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11101,7 +10869,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4618355" y="3952875"/>
+          <a:off x="4618355" y="3933825"/>
           <a:ext cx="617855" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11154,7 +10922,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4592955" y="2796540"/>
+          <a:off x="4592955" y="2777490"/>
           <a:ext cx="617855" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11207,7 +10975,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2934335" y="2796540"/>
+          <a:off x="2934335" y="2777490"/>
           <a:ext cx="617855" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11248,9 +11016,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:colOff>525145</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>42334</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="618067" cy="368299"/>
     <xdr:sp>
@@ -11260,8 +11028,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3053080" y="866775"/>
-          <a:ext cx="617855" cy="368300"/>
+          <a:off x="3171825" y="857250"/>
+          <a:ext cx="617855" cy="367665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11313,7 +11081,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2630805" y="4044950"/>
+          <a:off x="2630805" y="4025900"/>
           <a:ext cx="3361055" cy="804545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11392,7 +11160,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11816080" y="7715250"/>
+          <a:off x="11816080" y="7696200"/>
           <a:ext cx="1862455" cy="626110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12029,1398 +11797,1398 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09523809523809" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.69523809523809" style="476" customWidth="1"/>
-    <col min="2" max="2" width="17.2" style="476" customWidth="1"/>
-    <col min="3" max="3" width="21.4" style="476" customWidth="1"/>
-    <col min="4" max="4" width="27.6952380952381" style="476" customWidth="1"/>
-    <col min="5" max="5" width="11.8952380952381" style="476" customWidth="1"/>
-    <col min="6" max="6" width="17.2" style="476" customWidth="1"/>
-    <col min="7" max="7" width="16.2" style="476" customWidth="1"/>
-    <col min="8" max="16384" width="8.09523809523809" style="476"/>
+    <col min="1" max="1" width="8.69523809523809" style="473" customWidth="1"/>
+    <col min="2" max="2" width="17.2" style="473" customWidth="1"/>
+    <col min="3" max="3" width="21.4" style="473" customWidth="1"/>
+    <col min="4" max="4" width="27.6952380952381" style="473" customWidth="1"/>
+    <col min="5" max="5" width="11.8952380952381" style="473" customWidth="1"/>
+    <col min="6" max="6" width="17.2" style="473" customWidth="1"/>
+    <col min="7" max="7" width="16.2" style="473" customWidth="1"/>
+    <col min="8" max="16384" width="8.09523809523809" style="473"/>
   </cols>
   <sheetData>
     <row r="1" ht="55.95" customHeight="1" spans="1:8">
-      <c r="A1" s="477" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="479"/>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="477" t="s">
+      <c r="A1" s="474" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="475"/>
+      <c r="C1" s="476"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
+      <c r="F1" s="474" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="479"/>
-      <c r="H1" s="477" t="s">
+      <c r="G1" s="476"/>
+      <c r="H1" s="474" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="30.6" customHeight="1" spans="1:2">
-      <c r="A2" s="480" t="s">
+      <c r="A2" s="477" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="481"/>
+      <c r="B2" s="478"/>
     </row>
     <row r="3" ht="30.6" customHeight="1" spans="1:7">
-      <c r="A3" s="482" t="s">
+      <c r="A3" s="479" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="483"/>
-      <c r="C3" s="484"/>
-      <c r="D3" s="485" t="s">
+      <c r="B3" s="480"/>
+      <c r="C3" s="481"/>
+      <c r="D3" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="476" t="s">
+      <c r="E3" s="473" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="3:4">
-      <c r="C4" s="486"/>
-      <c r="D4" s="487">
+      <c r="C4" s="483"/>
+      <c r="D4" s="484">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="475" customFormat="1" ht="38.4" customHeight="1" spans="1:10">
-      <c r="A5" s="488" t="s">
+    <row r="5" s="472" customFormat="1" ht="38.4" customHeight="1" spans="1:10">
+      <c r="A5" s="485" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="489" t="s">
+      <c r="B5" s="486" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="489" t="s">
+      <c r="C5" s="486" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="490" t="s">
+      <c r="D5" s="487" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="476"/>
-      <c r="F5" s="476"/>
-      <c r="J5" s="605"/>
+      <c r="E5" s="473"/>
+      <c r="F5" s="473"/>
+      <c r="J5" s="602"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:10">
-      <c r="A6" s="491" t="s">
+      <c r="A6" s="488" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="492" t="s">
+      <c r="B6" s="489" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="493"/>
-      <c r="D6" s="494"/>
-      <c r="J6" s="605"/>
+      <c r="C6" s="490"/>
+      <c r="D6" s="491"/>
+      <c r="J6" s="602"/>
     </row>
     <row r="7" ht="32.4" customHeight="1" spans="1:10">
-      <c r="A7" s="495" t="s">
+      <c r="A7" s="492" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="496" t="s">
+      <c r="B7" s="493" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="497">
+      <c r="C7" s="494">
         <f>C6-G102</f>
         <v>0</v>
       </c>
-      <c r="D7" s="498"/>
-      <c r="J7" s="605"/>
+      <c r="D7" s="495"/>
+      <c r="J7" s="602"/>
     </row>
     <row r="8" ht="35.4" customHeight="1" spans="1:10">
-      <c r="A8" s="499" t="s">
+      <c r="A8" s="496" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="500" t="s">
+      <c r="B8" s="497" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="501" t="str">
+      <c r="C8" s="498" t="str">
         <f>IFERROR(C7/C6,"")</f>
         <v/>
       </c>
-      <c r="D8" s="502"/>
-      <c r="J8" s="605"/>
+      <c r="D8" s="499"/>
+      <c r="J8" s="602"/>
     </row>
     <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="503"/>
-      <c r="B9" s="504"/>
-      <c r="C9" s="505"/>
-      <c r="D9" s="506"/>
-      <c r="J9" s="605"/>
+      <c r="A9" s="500"/>
+      <c r="B9" s="501"/>
+      <c r="C9" s="502"/>
+      <c r="D9" s="503"/>
+      <c r="J9" s="602"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="507"/>
-      <c r="B10" s="508"/>
-      <c r="C10" s="509"/>
-      <c r="D10" s="510"/>
+      <c r="A10" s="504"/>
+      <c r="B10" s="505"/>
+      <c r="C10" s="506"/>
+      <c r="D10" s="507"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="511"/>
-      <c r="B11" s="512"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="514"/>
+      <c r="A11" s="508"/>
+      <c r="B11" s="509"/>
+      <c r="C11" s="510"/>
+      <c r="D11" s="511"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="515" t="s">
+      <c r="A12" s="512" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="516" t="s">
+      <c r="B12" s="513" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="517"/>
-      <c r="D12" s="518"/>
+      <c r="C12" s="514"/>
+      <c r="D12" s="515"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="515" t="s">
+      <c r="A13" s="512" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="519" t="s">
+      <c r="B13" s="516" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="520"/>
-      <c r="D13" s="521"/>
+      <c r="C13" s="517"/>
+      <c r="D13" s="518"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="515" t="s">
+      <c r="A14" s="512" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="519" t="s">
+      <c r="B14" s="516" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="520"/>
-      <c r="D14" s="521"/>
-      <c r="E14" s="522" t="s">
+      <c r="C14" s="517"/>
+      <c r="D14" s="518"/>
+      <c r="E14" s="519" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="515" t="s">
+      <c r="A15" s="512" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="523" t="s">
+      <c r="B15" s="520" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="524"/>
-      <c r="D15" s="525"/>
-      <c r="E15" s="522" t="s">
+      <c r="C15" s="521"/>
+      <c r="D15" s="522"/>
+      <c r="E15" s="519" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="515" t="s">
+      <c r="A16" s="512" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="526" t="s">
+      <c r="B16" s="523" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="527"/>
-      <c r="D16" s="528"/>
-      <c r="E16" s="522" t="s">
+      <c r="C16" s="524"/>
+      <c r="D16" s="525"/>
+      <c r="E16" s="519" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="515" t="s">
+      <c r="A17" s="512" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="529" t="s">
+      <c r="B17" s="526" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="530"/>
-      <c r="D17" s="531"/>
-      <c r="E17" s="522" t="s">
+      <c r="C17" s="527"/>
+      <c r="D17" s="528"/>
+      <c r="E17" s="519" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="515" t="s">
+      <c r="A18" s="512" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="519" t="s">
+      <c r="B18" s="516" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="520"/>
-      <c r="D18" s="532"/>
-      <c r="E18" s="522" t="s">
+      <c r="C18" s="517"/>
+      <c r="D18" s="529"/>
+      <c r="E18" s="519" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="515" t="s">
+      <c r="A19" s="512" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="523" t="s">
+      <c r="B19" s="520" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="524"/>
-      <c r="D19" s="533"/>
-      <c r="E19" s="522" t="s">
+      <c r="C19" s="521"/>
+      <c r="D19" s="530"/>
+      <c r="E19" s="519" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="515" t="s">
+      <c r="A20" s="512" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="526" t="s">
+      <c r="B20" s="523" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="527"/>
-      <c r="D20" s="528"/>
-      <c r="E20" s="522" t="s">
+      <c r="C20" s="524"/>
+      <c r="D20" s="525"/>
+      <c r="E20" s="519" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="515" t="s">
+      <c r="A21" s="512" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="526" t="s">
+      <c r="B21" s="523" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="527"/>
-      <c r="D21" s="528"/>
-      <c r="E21" s="522" t="s">
+      <c r="C21" s="524"/>
+      <c r="D21" s="525"/>
+      <c r="E21" s="519" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="515" t="s">
+      <c r="A22" s="512" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="529" t="s">
+      <c r="B22" s="526" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="530"/>
-      <c r="D22" s="534"/>
-      <c r="E22" s="522" t="s">
+      <c r="C22" s="527"/>
+      <c r="D22" s="531"/>
+      <c r="E22" s="519" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="515" t="s">
+      <c r="A23" s="512" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="519" t="s">
+      <c r="B23" s="516" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="520"/>
-      <c r="D23" s="535"/>
-      <c r="E23" s="522" t="s">
+      <c r="C23" s="517"/>
+      <c r="D23" s="532"/>
+      <c r="E23" s="519" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="515" t="s">
+      <c r="A24" s="512" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="519" t="s">
+      <c r="B24" s="516" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="520"/>
-      <c r="D24" s="535"/>
+      <c r="C24" s="517"/>
+      <c r="D24" s="532"/>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="515" t="s">
+      <c r="A25" s="512" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="519" t="s">
+      <c r="B25" s="516" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="520"/>
-      <c r="D25" s="535"/>
+      <c r="C25" s="517"/>
+      <c r="D25" s="532"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="515" t="s">
+      <c r="A26" s="512" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="523" t="s">
+      <c r="B26" s="520" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="524"/>
-      <c r="D26" s="525"/>
+      <c r="C26" s="521"/>
+      <c r="D26" s="522"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="515" t="s">
+      <c r="A27" s="512" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="529" t="s">
+      <c r="B27" s="526" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="530"/>
-      <c r="D27" s="536"/>
+      <c r="C27" s="527"/>
+      <c r="D27" s="533"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="515" t="s">
+      <c r="A28" s="512" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="537" t="s">
+      <c r="B28" s="534" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="538"/>
-      <c r="D28" s="539"/>
+      <c r="C28" s="535"/>
+      <c r="D28" s="536"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="540" t="s">
+      <c r="A29" s="537" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="541" t="s">
+      <c r="B29" s="538" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="493"/>
-      <c r="D29" s="542"/>
+      <c r="C29" s="490"/>
+      <c r="D29" s="539"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="540" t="s">
+      <c r="A30" s="537" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="543" t="s">
+      <c r="B30" s="540" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="530"/>
-      <c r="D30" s="531"/>
+      <c r="C30" s="527"/>
+      <c r="D30" s="528"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="540" t="s">
+      <c r="A31" s="537" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="544" t="s">
+      <c r="B31" s="541" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="545"/>
-      <c r="D31" s="546"/>
+      <c r="C31" s="542"/>
+      <c r="D31" s="543"/>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="540" t="s">
+      <c r="A32" s="537" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="547" t="s">
+      <c r="B32" s="544" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="548"/>
-      <c r="D32" s="549"/>
+      <c r="C32" s="545"/>
+      <c r="D32" s="546"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="540" t="s">
+      <c r="A33" s="537" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="550" t="s">
+      <c r="B33" s="547" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="551"/>
-      <c r="D33" s="552"/>
+      <c r="C33" s="548"/>
+      <c r="D33" s="549"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="540" t="s">
+      <c r="A34" s="537" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="553" t="s">
+      <c r="B34" s="550" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="524"/>
-      <c r="D34" s="533"/>
+      <c r="C34" s="521"/>
+      <c r="D34" s="530"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="540" t="s">
+      <c r="A35" s="537" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="543" t="s">
+      <c r="B35" s="540" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="530"/>
-      <c r="D35" s="531"/>
+      <c r="C35" s="527"/>
+      <c r="D35" s="528"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="540" t="s">
+      <c r="A36" s="537" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="553" t="s">
+      <c r="B36" s="550" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="524"/>
-      <c r="D36" s="533"/>
+      <c r="C36" s="521"/>
+      <c r="D36" s="530"/>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="554" t="s">
+      <c r="A37" s="551" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="543" t="s">
+      <c r="B37" s="540" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="530"/>
-      <c r="D37" s="531"/>
+      <c r="C37" s="527"/>
+      <c r="D37" s="528"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="554" t="s">
+      <c r="A38" s="551" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="555" t="s">
+      <c r="B38" s="552" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="520"/>
-      <c r="D38" s="532"/>
+      <c r="C38" s="517"/>
+      <c r="D38" s="529"/>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="554" t="s">
+      <c r="A39" s="551" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="555" t="s">
+      <c r="B39" s="552" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="520"/>
-      <c r="D39" s="532"/>
+      <c r="C39" s="517"/>
+      <c r="D39" s="529"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="554" t="s">
+      <c r="A40" s="551" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="555" t="s">
+      <c r="B40" s="552" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="520"/>
-      <c r="D40" s="532"/>
+      <c r="C40" s="517"/>
+      <c r="D40" s="529"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="554" t="s">
+      <c r="A41" s="551" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="555" t="s">
+      <c r="B41" s="552" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="520"/>
-      <c r="D41" s="532"/>
+      <c r="C41" s="517"/>
+      <c r="D41" s="529"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="554" t="s">
+      <c r="A42" s="551" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="556" t="s">
+      <c r="B42" s="553" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="557"/>
-      <c r="D42" s="558"/>
+      <c r="C42" s="554"/>
+      <c r="D42" s="555"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="559" t="s">
+      <c r="A43" s="556" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="560" t="s">
+      <c r="B43" s="557" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="561"/>
-      <c r="D43" s="562"/>
+      <c r="C43" s="558"/>
+      <c r="D43" s="559"/>
     </row>
     <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="563" t="s">
+      <c r="A44" s="560" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="564" t="s">
+      <c r="B44" s="561" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="565"/>
-      <c r="D44" s="566"/>
+      <c r="C44" s="562"/>
+      <c r="D44" s="563"/>
     </row>
     <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="563" t="s">
+      <c r="A45" s="560" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="567" t="s">
+      <c r="B45" s="564" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="568"/>
-      <c r="D45" s="536"/>
+      <c r="C45" s="565"/>
+      <c r="D45" s="533"/>
     </row>
     <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="563" t="s">
+      <c r="A46" s="560" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="564" t="s">
+      <c r="B46" s="561" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="565"/>
-      <c r="D46" s="566"/>
+      <c r="C46" s="562"/>
+      <c r="D46" s="563"/>
     </row>
     <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="563" t="s">
+      <c r="A47" s="560" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="567" t="s">
+      <c r="B47" s="564" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="568"/>
-      <c r="D47" s="536"/>
+      <c r="C47" s="565"/>
+      <c r="D47" s="533"/>
     </row>
     <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="563" t="s">
+      <c r="A48" s="560" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="569" t="s">
+      <c r="B48" s="566" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="570"/>
-      <c r="D48" s="539"/>
+      <c r="C48" s="567"/>
+      <c r="D48" s="536"/>
     </row>
     <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="563" t="s">
+      <c r="A49" s="560" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="571" t="s">
+      <c r="B49" s="568" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="572"/>
-      <c r="D49" s="573"/>
+      <c r="C49" s="569"/>
+      <c r="D49" s="570"/>
     </row>
     <row r="50" customHeight="1" spans="1:4">
-      <c r="A50" s="563" t="s">
+      <c r="A50" s="560" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="574" t="s">
+      <c r="B50" s="571" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="568"/>
-      <c r="D50" s="536"/>
+      <c r="C50" s="565"/>
+      <c r="D50" s="533"/>
     </row>
     <row r="51" customHeight="1" spans="1:4">
-      <c r="A51" s="563" t="s">
+      <c r="A51" s="560" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="575" t="s">
+      <c r="B51" s="572" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="576"/>
-      <c r="D51" s="521"/>
+      <c r="C51" s="573"/>
+      <c r="D51" s="518"/>
     </row>
     <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="563" t="s">
+      <c r="A52" s="560" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="577" t="s">
+      <c r="B52" s="574" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="565"/>
-      <c r="D52" s="566"/>
+      <c r="C52" s="562"/>
+      <c r="D52" s="563"/>
     </row>
     <row r="53" customHeight="1" spans="1:4">
-      <c r="A53" s="563" t="s">
+      <c r="A53" s="560" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="574" t="s">
+      <c r="B53" s="571" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="568"/>
-      <c r="D53" s="536"/>
+      <c r="C53" s="565"/>
+      <c r="D53" s="533"/>
     </row>
     <row r="54" customHeight="1" spans="1:4">
-      <c r="A54" s="563" t="s">
+      <c r="A54" s="560" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="575" t="s">
+      <c r="B54" s="572" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="576"/>
-      <c r="D54" s="578"/>
+      <c r="C54" s="573"/>
+      <c r="D54" s="575"/>
     </row>
     <row r="55" customHeight="1" spans="1:4">
-      <c r="A55" s="563" t="s">
+      <c r="A55" s="560" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="577" t="s">
+      <c r="B55" s="574" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="565"/>
-      <c r="D55" s="566"/>
+      <c r="C55" s="562"/>
+      <c r="D55" s="563"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="563" t="s">
+      <c r="A56" s="560" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="574" t="s">
+      <c r="B56" s="571" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="568"/>
-      <c r="D56" s="536"/>
-      <c r="E56" s="522" t="s">
+      <c r="C56" s="565"/>
+      <c r="D56" s="533"/>
+      <c r="E56" s="519" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="563" t="s">
+      <c r="A57" s="560" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="577" t="s">
+      <c r="B57" s="574" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="565"/>
-      <c r="D57" s="579">
+      <c r="C57" s="562"/>
+      <c r="D57" s="576">
         <f>SUM(D60:D62)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="522" t="s">
+      <c r="E57" s="519" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="580" t="s">
+      <c r="A58" s="577" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="581" t="s">
+      <c r="B58" s="578" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="582"/>
-      <c r="D58" s="583"/>
-      <c r="E58" s="522" t="s">
+      <c r="C58" s="579"/>
+      <c r="D58" s="580"/>
+      <c r="E58" s="519" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="584" t="s">
+      <c r="A59" s="581" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="585" t="s">
+      <c r="B59" s="582" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="586"/>
-      <c r="D59" s="518"/>
-      <c r="E59" s="522" t="s">
+      <c r="C59" s="583"/>
+      <c r="D59" s="515"/>
+      <c r="E59" s="519" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="584" t="s">
+      <c r="A60" s="581" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="587" t="s">
+      <c r="B60" s="584" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="588"/>
-      <c r="D60" s="566"/>
-      <c r="E60" s="522"/>
+      <c r="C60" s="585"/>
+      <c r="D60" s="563"/>
+      <c r="E60" s="519"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="584" t="s">
+      <c r="A61" s="581" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="589" t="s">
+      <c r="B61" s="586" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="590"/>
-      <c r="D61" s="536"/>
-      <c r="E61" s="522" t="s">
+      <c r="C61" s="587"/>
+      <c r="D61" s="533"/>
+      <c r="E61" s="519" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="584" t="s">
+      <c r="A62" s="581" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="591" t="s">
+      <c r="B62" s="588" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="592"/>
-      <c r="D62" s="539"/>
-      <c r="E62" s="522" t="s">
+      <c r="C62" s="589"/>
+      <c r="D62" s="536"/>
+      <c r="E62" s="519" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="593" t="s">
+      <c r="A63" s="590" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="594" t="s">
+      <c r="B63" s="591" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="595"/>
-      <c r="D63" s="573"/>
-      <c r="E63" s="596"/>
-      <c r="F63" s="597" t="s">
+      <c r="C63" s="592"/>
+      <c r="D63" s="570"/>
+      <c r="E63" s="593"/>
+      <c r="F63" s="594" t="s">
         <v>115</v>
       </c>
-      <c r="G63" s="598" t="s">
+      <c r="G63" s="595" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="599" t="s">
+      <c r="A64" s="596" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="600" t="s">
+      <c r="B64" s="597" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="601"/>
-      <c r="D64" s="536"/>
-      <c r="E64" s="602" t="s">
+      <c r="C64" s="598"/>
+      <c r="D64" s="533"/>
+      <c r="E64" s="599" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="603" t="s">
+      <c r="F64" s="600" t="s">
         <v>120</v>
       </c>
-      <c r="G64" s="604"/>
+      <c r="G64" s="601"/>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="599" t="s">
+      <c r="A65" s="596" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="606" t="s">
+      <c r="B65" s="603" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="607"/>
-      <c r="D65" s="521"/>
-      <c r="E65" s="602" t="s">
+      <c r="C65" s="604"/>
+      <c r="D65" s="518"/>
+      <c r="E65" s="599" t="s">
         <v>123</v>
       </c>
-      <c r="F65" s="603" t="s">
+      <c r="F65" s="600" t="s">
         <v>124</v>
       </c>
-      <c r="G65" s="604"/>
+      <c r="G65" s="601"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="599" t="s">
+      <c r="A66" s="596" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="608" t="s">
+      <c r="B66" s="605" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="609"/>
-      <c r="D66" s="566"/>
-      <c r="E66" s="602" t="s">
+      <c r="C66" s="606"/>
+      <c r="D66" s="563"/>
+      <c r="E66" s="599" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="603"/>
-      <c r="G66" s="604"/>
+      <c r="F66" s="600"/>
+      <c r="G66" s="601"/>
     </row>
     <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="599" t="s">
+      <c r="A67" s="596" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="600" t="s">
+      <c r="B67" s="597" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="601"/>
-      <c r="D67" s="536"/>
-      <c r="E67" s="610" t="s">
+      <c r="C67" s="598"/>
+      <c r="D67" s="533"/>
+      <c r="E67" s="607" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="611"/>
-      <c r="G67" s="583"/>
+      <c r="F67" s="608"/>
+      <c r="G67" s="580"/>
     </row>
     <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="599" t="s">
+      <c r="A68" s="596" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="612" t="s">
+      <c r="B68" s="609" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="613"/>
-      <c r="D68" s="539"/>
-      <c r="E68" s="596"/>
-      <c r="F68" s="614" t="s">
+      <c r="C68" s="610"/>
+      <c r="D68" s="536"/>
+      <c r="E68" s="593"/>
+      <c r="F68" s="611" t="s">
         <v>133</v>
       </c>
-      <c r="G68" s="615"/>
+      <c r="G68" s="612"/>
     </row>
     <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="599" t="s">
+      <c r="A69" s="596" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="616" t="s">
+      <c r="B69" s="613" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="617"/>
-      <c r="D69" s="618"/>
-      <c r="E69" s="602" t="s">
+      <c r="C69" s="614"/>
+      <c r="D69" s="615"/>
+      <c r="E69" s="599" t="s">
         <v>119</v>
       </c>
-      <c r="F69" s="603" t="s">
+      <c r="F69" s="600" t="s">
         <v>136</v>
       </c>
-      <c r="G69" s="604"/>
+      <c r="G69" s="601"/>
     </row>
     <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="599" t="s">
+      <c r="A70" s="596" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="600" t="s">
+      <c r="B70" s="597" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="530"/>
-      <c r="D70" s="536"/>
-      <c r="E70" s="602" t="s">
+      <c r="C70" s="527"/>
+      <c r="D70" s="533"/>
+      <c r="E70" s="599" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="603"/>
-      <c r="G70" s="604"/>
+      <c r="F70" s="600"/>
+      <c r="G70" s="601"/>
     </row>
     <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="599" t="s">
+      <c r="A71" s="596" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="608" t="s">
+      <c r="B71" s="605" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="524"/>
-      <c r="D71" s="566"/>
-      <c r="E71" s="602" t="s">
+      <c r="C71" s="521"/>
+      <c r="D71" s="563"/>
+      <c r="E71" s="599" t="s">
         <v>127</v>
       </c>
-      <c r="F71" s="603"/>
-      <c r="G71" s="604"/>
+      <c r="F71" s="600"/>
+      <c r="G71" s="601"/>
     </row>
     <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="599" t="s">
+      <c r="A72" s="596" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="600" t="s">
+      <c r="B72" s="597" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="530"/>
-      <c r="D72" s="536"/>
-      <c r="E72" s="610" t="s">
+      <c r="C72" s="527"/>
+      <c r="D72" s="533"/>
+      <c r="E72" s="607" t="s">
         <v>130</v>
       </c>
-      <c r="F72" s="611"/>
-      <c r="G72" s="583"/>
+      <c r="F72" s="608"/>
+      <c r="G72" s="580"/>
     </row>
     <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="599" t="s">
+      <c r="A73" s="596" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="608" t="s">
+      <c r="B73" s="605" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="524"/>
-      <c r="D73" s="566"/>
-      <c r="E73" s="596"/>
-      <c r="F73" s="614" t="s">
+      <c r="C73" s="521"/>
+      <c r="D73" s="563"/>
+      <c r="E73" s="593"/>
+      <c r="F73" s="611" t="s">
         <v>145</v>
       </c>
-      <c r="G73" s="615"/>
+      <c r="G73" s="612"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="599" t="s">
+      <c r="A74" s="596" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="619" t="s">
+      <c r="B74" s="616" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="527"/>
-      <c r="D74" s="604"/>
-      <c r="E74" s="602" t="s">
+      <c r="C74" s="524"/>
+      <c r="D74" s="601"/>
+      <c r="E74" s="599" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="603" t="s">
+      <c r="F74" s="600" t="s">
         <v>120</v>
       </c>
-      <c r="G74" s="604"/>
+      <c r="G74" s="601"/>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="599" t="s">
+      <c r="A75" s="596" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="619" t="s">
+      <c r="B75" s="616" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="527"/>
-      <c r="D75" s="604"/>
-      <c r="E75" s="602" t="s">
+      <c r="C75" s="524"/>
+      <c r="D75" s="601"/>
+      <c r="E75" s="599" t="s">
         <v>123</v>
       </c>
-      <c r="F75" s="603" t="s">
+      <c r="F75" s="600" t="s">
         <v>150</v>
       </c>
-      <c r="G75" s="604"/>
+      <c r="G75" s="601"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="599" t="s">
+      <c r="A76" s="596" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="600" t="s">
+      <c r="B76" s="597" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="530"/>
-      <c r="D76" s="536"/>
-      <c r="E76" s="602" t="s">
+      <c r="C76" s="527"/>
+      <c r="D76" s="533"/>
+      <c r="E76" s="599" t="s">
         <v>127</v>
       </c>
-      <c r="F76" s="603"/>
-      <c r="G76" s="604"/>
+      <c r="F76" s="600"/>
+      <c r="G76" s="601"/>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="599" t="s">
+      <c r="A77" s="596" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="608" t="s">
+      <c r="B77" s="605" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="524"/>
-      <c r="D77" s="566"/>
-      <c r="E77" s="610" t="s">
+      <c r="C77" s="521"/>
+      <c r="D77" s="563"/>
+      <c r="E77" s="607" t="s">
         <v>130</v>
       </c>
-      <c r="F77" s="611"/>
-      <c r="G77" s="583"/>
+      <c r="F77" s="608"/>
+      <c r="G77" s="580"/>
     </row>
     <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="599" t="s">
+      <c r="A78" s="596" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="619" t="s">
+      <c r="B78" s="616" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="527"/>
-      <c r="D78" s="604"/>
-      <c r="E78" s="596"/>
-      <c r="F78" s="614" t="s">
+      <c r="C78" s="524"/>
+      <c r="D78" s="601"/>
+      <c r="E78" s="593"/>
+      <c r="F78" s="611" t="s">
         <v>157</v>
       </c>
-      <c r="G78" s="615"/>
+      <c r="G78" s="612"/>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="599" t="s">
+      <c r="A79" s="596" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="600" t="s">
+      <c r="B79" s="597" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="530"/>
-      <c r="D79" s="536"/>
-      <c r="E79" s="602" t="s">
+      <c r="C79" s="527"/>
+      <c r="D79" s="533"/>
+      <c r="E79" s="599" t="s">
         <v>119</v>
       </c>
-      <c r="F79" s="603" t="s">
+      <c r="F79" s="600" t="s">
         <v>160</v>
       </c>
-      <c r="G79" s="604"/>
+      <c r="G79" s="601"/>
     </row>
     <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="599" t="s">
+      <c r="A80" s="596" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="608" t="s">
+      <c r="B80" s="605" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="524"/>
-      <c r="D80" s="566"/>
-      <c r="E80" s="602" t="s">
+      <c r="C80" s="521"/>
+      <c r="D80" s="563"/>
+      <c r="E80" s="599" t="s">
         <v>123</v>
       </c>
-      <c r="F80" s="603"/>
-      <c r="G80" s="604"/>
+      <c r="F80" s="600"/>
+      <c r="G80" s="601"/>
     </row>
     <row r="81" customHeight="1" spans="1:7">
-      <c r="A81" s="599" t="s">
+      <c r="A81" s="596" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="600" t="s">
+      <c r="B81" s="597" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="530"/>
-      <c r="D81" s="536"/>
-      <c r="E81" s="602" t="s">
+      <c r="C81" s="527"/>
+      <c r="D81" s="533"/>
+      <c r="E81" s="599" t="s">
         <v>127</v>
       </c>
-      <c r="F81" s="603"/>
-      <c r="G81" s="604"/>
+      <c r="F81" s="600"/>
+      <c r="G81" s="601"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="599" t="s">
+      <c r="A82" s="596" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="608" t="s">
+      <c r="B82" s="605" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="524"/>
-      <c r="D82" s="566"/>
-      <c r="E82" s="620" t="s">
+      <c r="C82" s="521"/>
+      <c r="D82" s="563"/>
+      <c r="E82" s="617" t="s">
         <v>130</v>
       </c>
-      <c r="F82" s="611"/>
-      <c r="G82" s="583"/>
+      <c r="F82" s="608"/>
+      <c r="G82" s="580"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="599" t="s">
+      <c r="A83" s="596" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="600" t="s">
+      <c r="B83" s="597" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="530"/>
-      <c r="D83" s="536"/>
-      <c r="E83" s="522" t="s">
+      <c r="C83" s="527"/>
+      <c r="D83" s="533"/>
+      <c r="E83" s="519" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="599" t="s">
+      <c r="A84" s="596" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="606" t="s">
+      <c r="B84" s="603" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="520"/>
-      <c r="D84" s="521"/>
-      <c r="E84" s="522" t="s">
+      <c r="C84" s="517"/>
+      <c r="D84" s="518"/>
+      <c r="E84" s="519" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="599" t="s">
+      <c r="A85" s="596" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="606" t="s">
+      <c r="B85" s="603" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="520"/>
-      <c r="D85" s="521"/>
-      <c r="E85" s="522" t="s">
+      <c r="C85" s="517"/>
+      <c r="D85" s="518"/>
+      <c r="E85" s="519" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="599" t="s">
+      <c r="A86" s="596" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="606" t="s">
+      <c r="B86" s="603" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="520"/>
-      <c r="D86" s="521"/>
-      <c r="E86" s="522" t="s">
+      <c r="C86" s="517"/>
+      <c r="D86" s="518"/>
+      <c r="E86" s="519" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="599" t="s">
+      <c r="A87" s="596" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="606" t="s">
+      <c r="B87" s="603" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="520"/>
-      <c r="D87" s="521"/>
-      <c r="E87" s="522" t="s">
+      <c r="C87" s="517"/>
+      <c r="D87" s="518"/>
+      <c r="E87" s="519" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="599" t="s">
+      <c r="A88" s="596" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="606" t="s">
+      <c r="B88" s="603" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="520"/>
-      <c r="D88" s="521"/>
-      <c r="E88" s="522" t="s">
+      <c r="C88" s="517"/>
+      <c r="D88" s="518"/>
+      <c r="E88" s="519" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="599" t="s">
+      <c r="A89" s="596" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="606" t="s">
+      <c r="B89" s="603" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="520"/>
-      <c r="D89" s="521"/>
-      <c r="E89" s="522" t="s">
+      <c r="C89" s="517"/>
+      <c r="D89" s="518"/>
+      <c r="E89" s="519" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="599" t="s">
+      <c r="A90" s="596" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="606" t="s">
+      <c r="B90" s="603" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="520"/>
-      <c r="D90" s="521"/>
-      <c r="E90" s="522" t="s">
+      <c r="C90" s="517"/>
+      <c r="D90" s="518"/>
+      <c r="E90" s="519" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="599" t="s">
+      <c r="A91" s="596" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="606" t="s">
+      <c r="B91" s="603" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="520"/>
-      <c r="D91" s="521"/>
-      <c r="E91" s="522" t="s">
+      <c r="C91" s="517"/>
+      <c r="D91" s="518"/>
+      <c r="E91" s="519" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="599" t="s">
+      <c r="A92" s="596" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="606" t="s">
+      <c r="B92" s="603" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="520"/>
-      <c r="D92" s="521"/>
-      <c r="E92" s="522" t="s">
+      <c r="C92" s="517"/>
+      <c r="D92" s="518"/>
+      <c r="E92" s="519" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="599" t="s">
+      <c r="A93" s="596" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="606" t="s">
+      <c r="B93" s="603" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="520"/>
-      <c r="D93" s="521"/>
-      <c r="E93" s="522" t="s">
+      <c r="C93" s="517"/>
+      <c r="D93" s="518"/>
+      <c r="E93" s="519" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="599" t="s">
+      <c r="A94" s="596" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="606" t="s">
+      <c r="B94" s="603" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="520"/>
-      <c r="D94" s="521"/>
-      <c r="E94" s="522" t="s">
+      <c r="C94" s="517"/>
+      <c r="D94" s="518"/>
+      <c r="E94" s="519" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="599" t="s">
+      <c r="A95" s="596" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="606" t="s">
+      <c r="B95" s="603" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="520"/>
-      <c r="D95" s="521"/>
-      <c r="E95" s="522" t="s">
+      <c r="C95" s="517"/>
+      <c r="D95" s="518"/>
+      <c r="E95" s="519" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="599" t="s">
+      <c r="A96" s="596" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="606" t="s">
+      <c r="B96" s="603" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="520"/>
-      <c r="D96" s="521"/>
-      <c r="E96" s="522" t="s">
+      <c r="C96" s="517"/>
+      <c r="D96" s="518"/>
+      <c r="E96" s="519" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="599" t="s">
+      <c r="A97" s="596" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="606" t="s">
+      <c r="B97" s="603" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="520"/>
-      <c r="D97" s="521"/>
-      <c r="E97" s="522" t="s">
+      <c r="C97" s="517"/>
+      <c r="D97" s="518"/>
+      <c r="E97" s="519" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="599" t="s">
+      <c r="A98" s="596" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="606" t="s">
+      <c r="B98" s="603" t="s">
         <v>112</v>
       </c>
-      <c r="C98" s="520"/>
-      <c r="D98" s="521"/>
-      <c r="E98" s="522" t="s">
+      <c r="C98" s="517"/>
+      <c r="D98" s="518"/>
+      <c r="E98" s="519" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="621" t="s">
+      <c r="A99" s="618" t="s">
         <v>198</v>
       </c>
-      <c r="B99" s="612" t="s">
+      <c r="B99" s="609" t="s">
         <v>199</v>
       </c>
-      <c r="C99" s="538"/>
-      <c r="D99" s="539"/>
-      <c r="E99" s="522" t="s">
+      <c r="C99" s="535"/>
+      <c r="D99" s="536"/>
+      <c r="E99" s="519" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:5">
-      <c r="A100" s="622" t="s">
+      <c r="A100" s="619" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="623" t="s">
+      <c r="B100" s="620" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="624"/>
-      <c r="D100" s="625"/>
-      <c r="E100" s="522" t="s">
+      <c r="C100" s="621"/>
+      <c r="D100" s="622"/>
+      <c r="E100" s="519" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="626" t="s">
+      <c r="A101" s="623" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="627" t="s">
+      <c r="B101" s="624" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="628"/>
-      <c r="D101" s="629"/>
-      <c r="E101" s="522" t="s">
+      <c r="C101" s="625"/>
+      <c r="D101" s="626"/>
+      <c r="E101" s="519" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="630" t="s">
+      <c r="A102" s="627" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="614" t="s">
+      <c r="B102" s="611" t="s">
         <v>204</v>
       </c>
-      <c r="C102" s="631">
+      <c r="C102" s="628">
         <f>SUM(G64:G67)</f>
         <v>0</v>
       </c>
-      <c r="D102" s="632"/>
-      <c r="E102" s="633" t="s">
+      <c r="D102" s="629"/>
+      <c r="E102" s="630" t="s">
         <v>205</v>
       </c>
-      <c r="F102" s="634" t="s">
+      <c r="F102" s="631" t="s">
         <v>206</v>
       </c>
-      <c r="G102" s="635">
+      <c r="G102" s="632">
         <f>SUM(D12:D58)+SUM(D63:D100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A103" s="630" t="s">
+      <c r="A103" s="627" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="614" t="s">
+      <c r="B103" s="611" t="s">
         <v>207</v>
       </c>
-      <c r="C103" s="631">
+      <c r="C103" s="628">
         <f>SUM(G69:G72)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="632"/>
-      <c r="E103" s="636"/>
-      <c r="F103" s="637" t="s">
+      <c r="D103" s="629"/>
+      <c r="E103" s="633"/>
+      <c r="F103" s="634" t="s">
         <v>208</v>
       </c>
-      <c r="G103" s="638">
+      <c r="G103" s="635">
         <f>SUM(C12:C100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:7">
-      <c r="A104" s="630" t="s">
+      <c r="A104" s="627" t="s">
         <v>127</v>
       </c>
-      <c r="B104" s="614" t="s">
+      <c r="B104" s="611" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="631">
+      <c r="C104" s="628">
         <f>G105+C102-C103</f>
         <v>0</v>
       </c>
-      <c r="D104" s="632"/>
-      <c r="E104" s="639"/>
-      <c r="F104" s="637"/>
-      <c r="G104" s="638"/>
+      <c r="D104" s="629"/>
+      <c r="E104" s="636"/>
+      <c r="F104" s="634"/>
+      <c r="G104" s="635"/>
     </row>
     <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="630" t="s">
+      <c r="A105" s="627" t="s">
         <v>130</v>
       </c>
-      <c r="B105" s="614" t="s">
+      <c r="B105" s="611" t="s">
         <v>210</v>
       </c>
-      <c r="C105" s="631">
+      <c r="C105" s="628">
         <f>SUM(G74:G77)</f>
         <v>0</v>
       </c>
-      <c r="D105" s="632"/>
-      <c r="E105" s="639"/>
-      <c r="F105" s="637" t="s">
+      <c r="D105" s="629"/>
+      <c r="E105" s="636"/>
+      <c r="F105" s="634" t="s">
         <v>211</v>
       </c>
-      <c r="G105" s="640">
+      <c r="G105" s="637">
         <f>C7-G103</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A106" s="641" t="s">
+      <c r="A106" s="638" t="s">
         <v>212</v>
       </c>
-      <c r="B106" s="642" t="s">
+      <c r="B106" s="639" t="s">
         <v>213</v>
       </c>
-      <c r="C106" s="643">
+      <c r="C106" s="640">
         <f>SUM(G79:G82)</f>
         <v>0</v>
       </c>
-      <c r="D106" s="644"/>
-      <c r="E106" s="645"/>
-      <c r="F106" s="646" t="s">
+      <c r="D106" s="641"/>
+      <c r="E106" s="642"/>
+      <c r="F106" s="643" t="s">
         <v>214</v>
       </c>
-      <c r="G106" s="647">
+      <c r="G106" s="644">
         <f>C104+C105-C106</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:3">
-      <c r="A108" s="648"/>
-      <c r="B108" s="648"/>
-      <c r="C108" s="649"/>
+      <c r="A108" s="645"/>
+      <c r="B108" s="645"/>
+      <c r="C108" s="646"/>
     </row>
     <row r="109" customHeight="1" spans="1:3">
-      <c r="A109" s="648"/>
-      <c r="B109" s="648"/>
-      <c r="C109" s="649"/>
+      <c r="A109" s="645"/>
+      <c r="B109" s="645"/>
+      <c r="C109" s="646"/>
     </row>
     <row r="110" customHeight="1" spans="1:3">
-      <c r="A110" s="650"/>
-      <c r="B110" s="648"/>
-      <c r="C110" s="649"/>
+      <c r="A110" s="647"/>
+      <c r="B110" s="645"/>
+      <c r="C110" s="646"/>
     </row>
     <row r="111" customHeight="1" spans="1:3">
-      <c r="A111" s="650"/>
-      <c r="B111" s="648"/>
-      <c r="C111" s="649"/>
+      <c r="A111" s="647"/>
+      <c r="B111" s="645"/>
+      <c r="C111" s="646"/>
     </row>
     <row r="112" customHeight="1" spans="1:3">
-      <c r="A112" s="650"/>
-      <c r="B112" s="648"/>
-      <c r="C112" s="649"/>
+      <c r="A112" s="647"/>
+      <c r="B112" s="645"/>
+      <c r="C112" s="646"/>
     </row>
     <row r="116" customHeight="1" spans="5:5">
-      <c r="E116" s="522"/>
+      <c r="E116" s="519"/>
     </row>
     <row r="117" customHeight="1" spans="5:5">
-      <c r="E117" s="522"/>
+      <c r="E117" s="519"/>
     </row>
     <row r="118" customHeight="1" spans="5:5">
-      <c r="E118" s="522"/>
+      <c r="E118" s="519"/>
     </row>
     <row r="119" customHeight="1" spans="5:5">
-      <c r="E119" s="522"/>
+      <c r="E119" s="519"/>
     </row>
     <row r="120" customHeight="1" spans="5:5">
-      <c r="E120" s="522"/>
+      <c r="E120" s="519"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1"/>
@@ -13916,7 +13684,7 @@
   </sheetPr>
   <dimension ref="B1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" topLeftCell="A15" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -21892,7 +21660,7 @@
   <dimension ref="B1:T36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E12"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -21926,405 +21694,403 @@
         <f>スタート!C6</f>
         <v>0</v>
       </c>
-      <c r="C3" s="427"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="428"/>
-      <c r="F3" s="429">
+      <c r="C3" s="430"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="432">
         <f>スタート!G102</f>
         <v>0</v>
       </c>
-      <c r="G3" s="430"/>
-      <c r="H3" s="430"/>
-      <c r="I3" s="451"/>
-      <c r="L3" s="452"/>
-      <c r="M3" s="453"/>
-      <c r="N3" s="453"/>
-      <c r="O3" s="454"/>
-      <c r="P3" s="455" t="s">
+      <c r="G3" s="433"/>
+      <c r="H3" s="433"/>
+      <c r="I3" s="454"/>
+      <c r="L3" s="455"/>
+      <c r="M3" s="456"/>
+      <c r="N3" s="456"/>
+      <c r="O3" s="457"/>
+      <c r="P3" s="458" t="s">
         <v>216</v>
       </c>
-      <c r="Q3" s="452"/>
-      <c r="R3" s="453"/>
-      <c r="S3" s="453"/>
-      <c r="T3" s="454"/>
+      <c r="Q3" s="455"/>
+      <c r="R3" s="456"/>
+      <c r="S3" s="456"/>
+      <c r="T3" s="457"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="431"/>
-      <c r="C4" s="432"/>
-      <c r="D4" s="432"/>
-      <c r="E4" s="433"/>
-      <c r="F4" s="434"/>
-      <c r="G4" s="435"/>
-      <c r="H4" s="435"/>
-      <c r="I4" s="456"/>
-      <c r="L4" s="457"/>
-      <c r="M4" s="458"/>
-      <c r="N4" s="458"/>
-      <c r="O4" s="459"/>
-      <c r="P4" s="460"/>
-      <c r="Q4" s="457"/>
-      <c r="R4" s="458"/>
-      <c r="S4" s="458"/>
-      <c r="T4" s="459"/>
+      <c r="B4" s="434"/>
+      <c r="C4" s="435"/>
+      <c r="D4" s="435"/>
+      <c r="E4" s="436"/>
+      <c r="F4" s="437"/>
+      <c r="G4" s="438"/>
+      <c r="H4" s="438"/>
+      <c r="I4" s="459"/>
+      <c r="L4" s="460"/>
+      <c r="M4" s="461"/>
+      <c r="N4" s="461"/>
+      <c r="O4" s="462"/>
+      <c r="P4" s="463"/>
+      <c r="Q4" s="460"/>
+      <c r="R4" s="461"/>
+      <c r="S4" s="461"/>
+      <c r="T4" s="462"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="431"/>
-      <c r="C5" s="432"/>
-      <c r="D5" s="432"/>
-      <c r="E5" s="433"/>
-      <c r="F5" s="434"/>
-      <c r="G5" s="435"/>
-      <c r="H5" s="435"/>
-      <c r="I5" s="456"/>
-      <c r="L5" s="457"/>
-      <c r="M5" s="458"/>
-      <c r="N5" s="458"/>
-      <c r="O5" s="459"/>
-      <c r="P5" s="460"/>
-      <c r="Q5" s="457"/>
-      <c r="R5" s="458"/>
-      <c r="S5" s="458"/>
-      <c r="T5" s="459"/>
+      <c r="B5" s="434"/>
+      <c r="C5" s="435"/>
+      <c r="D5" s="435"/>
+      <c r="E5" s="436"/>
+      <c r="F5" s="437"/>
+      <c r="G5" s="438"/>
+      <c r="H5" s="438"/>
+      <c r="I5" s="459"/>
+      <c r="L5" s="460"/>
+      <c r="M5" s="461"/>
+      <c r="N5" s="461"/>
+      <c r="O5" s="462"/>
+      <c r="P5" s="463"/>
+      <c r="Q5" s="460"/>
+      <c r="R5" s="461"/>
+      <c r="S5" s="461"/>
+      <c r="T5" s="462"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="431"/>
-      <c r="C6" s="432"/>
-      <c r="D6" s="432"/>
-      <c r="E6" s="433"/>
-      <c r="F6" s="434"/>
-      <c r="G6" s="435"/>
-      <c r="H6" s="435"/>
-      <c r="I6" s="456"/>
-      <c r="L6" s="457"/>
-      <c r="M6" s="458"/>
-      <c r="N6" s="458"/>
-      <c r="O6" s="459"/>
-      <c r="P6" s="460"/>
-      <c r="Q6" s="457"/>
-      <c r="R6" s="458"/>
-      <c r="S6" s="458"/>
-      <c r="T6" s="459"/>
+      <c r="B6" s="434"/>
+      <c r="C6" s="435"/>
+      <c r="D6" s="435"/>
+      <c r="E6" s="436"/>
+      <c r="F6" s="437"/>
+      <c r="G6" s="438"/>
+      <c r="H6" s="438"/>
+      <c r="I6" s="459"/>
+      <c r="L6" s="460"/>
+      <c r="M6" s="461"/>
+      <c r="N6" s="461"/>
+      <c r="O6" s="462"/>
+      <c r="P6" s="463"/>
+      <c r="Q6" s="460"/>
+      <c r="R6" s="461"/>
+      <c r="S6" s="461"/>
+      <c r="T6" s="462"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="431"/>
-      <c r="C7" s="432"/>
-      <c r="D7" s="432"/>
-      <c r="E7" s="433"/>
-      <c r="F7" s="434"/>
-      <c r="G7" s="435"/>
-      <c r="H7" s="435"/>
-      <c r="I7" s="456"/>
-      <c r="L7" s="457"/>
-      <c r="M7" s="458"/>
-      <c r="N7" s="458"/>
-      <c r="O7" s="459"/>
-      <c r="P7" s="460"/>
-      <c r="Q7" s="457"/>
-      <c r="R7" s="458"/>
-      <c r="S7" s="458"/>
-      <c r="T7" s="459"/>
+      <c r="B7" s="434"/>
+      <c r="C7" s="435"/>
+      <c r="D7" s="435"/>
+      <c r="E7" s="436"/>
+      <c r="F7" s="437"/>
+      <c r="G7" s="438"/>
+      <c r="H7" s="438"/>
+      <c r="I7" s="459"/>
+      <c r="L7" s="460"/>
+      <c r="M7" s="461"/>
+      <c r="N7" s="461"/>
+      <c r="O7" s="462"/>
+      <c r="P7" s="463"/>
+      <c r="Q7" s="460"/>
+      <c r="R7" s="461"/>
+      <c r="S7" s="461"/>
+      <c r="T7" s="462"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="431"/>
-      <c r="C8" s="432"/>
-      <c r="D8" s="432"/>
-      <c r="E8" s="433"/>
-      <c r="F8" s="434"/>
-      <c r="G8" s="435"/>
-      <c r="H8" s="435"/>
-      <c r="I8" s="456"/>
-      <c r="L8" s="457"/>
-      <c r="M8" s="458"/>
-      <c r="N8" s="458"/>
-      <c r="O8" s="459"/>
-      <c r="P8" s="460"/>
-      <c r="Q8" s="457"/>
-      <c r="R8" s="458"/>
-      <c r="S8" s="458"/>
-      <c r="T8" s="459"/>
+      <c r="B8" s="434"/>
+      <c r="C8" s="435"/>
+      <c r="D8" s="435"/>
+      <c r="E8" s="436"/>
+      <c r="F8" s="437"/>
+      <c r="G8" s="438"/>
+      <c r="H8" s="438"/>
+      <c r="I8" s="459"/>
+      <c r="L8" s="460"/>
+      <c r="M8" s="461"/>
+      <c r="N8" s="461"/>
+      <c r="O8" s="462"/>
+      <c r="P8" s="463"/>
+      <c r="Q8" s="460"/>
+      <c r="R8" s="461"/>
+      <c r="S8" s="461"/>
+      <c r="T8" s="462"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="431"/>
-      <c r="C9" s="432"/>
-      <c r="D9" s="432"/>
-      <c r="E9" s="433"/>
-      <c r="F9" s="434"/>
-      <c r="G9" s="435"/>
-      <c r="H9" s="435"/>
-      <c r="I9" s="456"/>
-      <c r="L9" s="457"/>
-      <c r="M9" s="458"/>
-      <c r="N9" s="458"/>
-      <c r="O9" s="459"/>
-      <c r="P9" s="460"/>
-      <c r="Q9" s="457"/>
-      <c r="R9" s="458"/>
-      <c r="S9" s="458"/>
-      <c r="T9" s="459"/>
+      <c r="B9" s="434"/>
+      <c r="C9" s="435"/>
+      <c r="D9" s="435"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="437"/>
+      <c r="G9" s="438"/>
+      <c r="H9" s="438"/>
+      <c r="I9" s="459"/>
+      <c r="L9" s="460"/>
+      <c r="M9" s="461"/>
+      <c r="N9" s="461"/>
+      <c r="O9" s="462"/>
+      <c r="P9" s="463"/>
+      <c r="Q9" s="460"/>
+      <c r="R9" s="461"/>
+      <c r="S9" s="461"/>
+      <c r="T9" s="462"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="431"/>
-      <c r="C10" s="432"/>
-      <c r="D10" s="432"/>
-      <c r="E10" s="433"/>
-      <c r="F10" s="434"/>
-      <c r="G10" s="435"/>
-      <c r="H10" s="435"/>
-      <c r="I10" s="456"/>
-      <c r="L10" s="457"/>
-      <c r="M10" s="458"/>
-      <c r="N10" s="458"/>
-      <c r="O10" s="459"/>
-      <c r="P10" s="460"/>
-      <c r="Q10" s="457"/>
-      <c r="R10" s="458"/>
-      <c r="S10" s="458"/>
-      <c r="T10" s="459"/>
+      <c r="B10" s="434"/>
+      <c r="C10" s="435"/>
+      <c r="D10" s="435"/>
+      <c r="E10" s="436"/>
+      <c r="F10" s="437"/>
+      <c r="G10" s="438"/>
+      <c r="H10" s="438"/>
+      <c r="I10" s="459"/>
+      <c r="L10" s="460"/>
+      <c r="M10" s="461"/>
+      <c r="N10" s="461"/>
+      <c r="O10" s="462"/>
+      <c r="P10" s="463"/>
+      <c r="Q10" s="460"/>
+      <c r="R10" s="461"/>
+      <c r="S10" s="461"/>
+      <c r="T10" s="462"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="431"/>
-      <c r="C11" s="432"/>
-      <c r="D11" s="432"/>
-      <c r="E11" s="433"/>
-      <c r="F11" s="434"/>
-      <c r="G11" s="435"/>
-      <c r="H11" s="435"/>
-      <c r="I11" s="456"/>
-      <c r="L11" s="457"/>
-      <c r="M11" s="458"/>
-      <c r="N11" s="458"/>
-      <c r="O11" s="459"/>
-      <c r="P11" s="460"/>
-      <c r="Q11" s="457"/>
-      <c r="R11" s="458"/>
-      <c r="S11" s="458"/>
-      <c r="T11" s="459"/>
+      <c r="B11" s="434"/>
+      <c r="C11" s="435"/>
+      <c r="D11" s="435"/>
+      <c r="E11" s="436"/>
+      <c r="F11" s="437"/>
+      <c r="G11" s="438"/>
+      <c r="H11" s="438"/>
+      <c r="I11" s="459"/>
+      <c r="L11" s="460"/>
+      <c r="M11" s="461"/>
+      <c r="N11" s="461"/>
+      <c r="O11" s="462"/>
+      <c r="P11" s="463"/>
+      <c r="Q11" s="460"/>
+      <c r="R11" s="461"/>
+      <c r="S11" s="461"/>
+      <c r="T11" s="462"/>
     </row>
     <row r="12" ht="15.75" spans="2:20">
-      <c r="B12" s="431"/>
-      <c r="C12" s="432"/>
-      <c r="D12" s="432"/>
-      <c r="E12" s="433"/>
-      <c r="F12" s="436"/>
-      <c r="G12" s="437"/>
-      <c r="H12" s="437"/>
-      <c r="I12" s="461"/>
-      <c r="L12" s="462"/>
-      <c r="M12" s="463"/>
-      <c r="N12" s="463"/>
-      <c r="O12" s="464"/>
-      <c r="P12" s="465"/>
-      <c r="Q12" s="462"/>
-      <c r="R12" s="463"/>
-      <c r="S12" s="463"/>
-      <c r="T12" s="464"/>
+      <c r="B12" s="434"/>
+      <c r="C12" s="435"/>
+      <c r="D12" s="435"/>
+      <c r="E12" s="436"/>
+      <c r="F12" s="439"/>
+      <c r="G12" s="440"/>
+      <c r="H12" s="440"/>
+      <c r="I12" s="464"/>
+      <c r="L12" s="465"/>
+      <c r="M12" s="466"/>
+      <c r="N12" s="466"/>
+      <c r="O12" s="467"/>
+      <c r="P12" s="468"/>
+      <c r="Q12" s="465"/>
+      <c r="R12" s="466"/>
+      <c r="S12" s="466"/>
+      <c r="T12" s="467"/>
     </row>
     <row r="13" ht="18.6" customHeight="1" spans="2:20">
-      <c r="B13" s="438">
+      <c r="B13" s="441">
         <f>L3*Q3/1000000</f>
         <v>0</v>
       </c>
-      <c r="C13" s="439"/>
-      <c r="D13" s="439"/>
-      <c r="E13" s="440"/>
-      <c r="F13" s="441">
+      <c r="C13" s="442"/>
+      <c r="D13" s="442"/>
+      <c r="E13" s="443"/>
+      <c r="F13" s="444">
         <f>スタート!C7</f>
         <v>0</v>
       </c>
-      <c r="G13" s="441"/>
-      <c r="H13" s="441">
+      <c r="G13" s="444"/>
+      <c r="H13" s="444">
         <f>スタート!G103</f>
         <v>0</v>
       </c>
-      <c r="I13" s="441"/>
-      <c r="L13" s="466"/>
-      <c r="M13" s="467"/>
-      <c r="N13" s="467"/>
-      <c r="O13" s="468"/>
-      <c r="P13" s="455" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q13" s="452"/>
-      <c r="R13" s="453"/>
-      <c r="S13" s="453"/>
-      <c r="T13" s="454"/>
+      <c r="I13" s="444"/>
+      <c r="L13" s="469"/>
+      <c r="M13" s="470"/>
+      <c r="N13" s="469"/>
+      <c r="O13" s="470"/>
+      <c r="P13" s="471"/>
+      <c r="Q13" s="469"/>
+      <c r="R13" s="469"/>
+      <c r="S13" s="469"/>
+      <c r="T13" s="469"/>
     </row>
     <row r="14" ht="18.6" customHeight="1" spans="2:20">
-      <c r="B14" s="442"/>
-      <c r="C14" s="443"/>
-      <c r="D14" s="443"/>
-      <c r="E14" s="444"/>
-      <c r="F14" s="441"/>
-      <c r="G14" s="441"/>
-      <c r="H14" s="441"/>
-      <c r="I14" s="441"/>
+      <c r="B14" s="445"/>
+      <c r="C14" s="446"/>
+      <c r="D14" s="446"/>
+      <c r="E14" s="447"/>
+      <c r="F14" s="444"/>
+      <c r="G14" s="444"/>
+      <c r="H14" s="444"/>
+      <c r="I14" s="444"/>
       <c r="L14" s="469"/>
       <c r="M14" s="470"/>
-      <c r="N14" s="470"/>
-      <c r="O14" s="471"/>
-      <c r="P14" s="460"/>
-      <c r="Q14" s="457"/>
-      <c r="R14" s="458"/>
-      <c r="S14" s="458"/>
-      <c r="T14" s="459"/>
+      <c r="N14" s="469"/>
+      <c r="O14" s="470"/>
+      <c r="P14" s="471"/>
+      <c r="Q14" s="469"/>
+      <c r="R14" s="470"/>
+      <c r="S14" s="470"/>
+      <c r="T14" s="469"/>
     </row>
     <row r="15" ht="18.6" customHeight="1" spans="2:20">
-      <c r="B15" s="442"/>
-      <c r="C15" s="443"/>
-      <c r="D15" s="443"/>
-      <c r="E15" s="444"/>
-      <c r="F15" s="441"/>
-      <c r="G15" s="441"/>
-      <c r="H15" s="441"/>
-      <c r="I15" s="441"/>
+      <c r="B15" s="445"/>
+      <c r="C15" s="446"/>
+      <c r="D15" s="446"/>
+      <c r="E15" s="447"/>
+      <c r="F15" s="444"/>
+      <c r="G15" s="444"/>
+      <c r="H15" s="444"/>
+      <c r="I15" s="444"/>
       <c r="L15" s="469"/>
       <c r="M15" s="470"/>
-      <c r="N15" s="470"/>
-      <c r="O15" s="471"/>
-      <c r="P15" s="460"/>
-      <c r="Q15" s="457"/>
-      <c r="R15" s="458"/>
-      <c r="S15" s="458"/>
-      <c r="T15" s="459"/>
+      <c r="N15" s="469"/>
+      <c r="O15" s="470"/>
+      <c r="P15" s="471"/>
+      <c r="Q15" s="469"/>
+      <c r="R15" s="470"/>
+      <c r="S15" s="470"/>
+      <c r="T15" s="469"/>
     </row>
     <row r="16" ht="18.6" customHeight="1" spans="2:20">
-      <c r="B16" s="442"/>
-      <c r="C16" s="443"/>
-      <c r="D16" s="443"/>
-      <c r="E16" s="444"/>
-      <c r="F16" s="441"/>
-      <c r="G16" s="441"/>
-      <c r="H16" s="441"/>
-      <c r="I16" s="441"/>
+      <c r="B16" s="445"/>
+      <c r="C16" s="446"/>
+      <c r="D16" s="446"/>
+      <c r="E16" s="447"/>
+      <c r="F16" s="444"/>
+      <c r="G16" s="444"/>
+      <c r="H16" s="444"/>
+      <c r="I16" s="444"/>
       <c r="L16" s="469"/>
       <c r="M16" s="470"/>
-      <c r="N16" s="470"/>
-      <c r="O16" s="471"/>
-      <c r="P16" s="460"/>
-      <c r="Q16" s="457"/>
-      <c r="R16" s="458"/>
-      <c r="S16" s="458"/>
-      <c r="T16" s="459"/>
+      <c r="N16" s="469"/>
+      <c r="O16" s="470"/>
+      <c r="P16" s="471"/>
+      <c r="Q16" s="469"/>
+      <c r="R16" s="470"/>
+      <c r="S16" s="470"/>
+      <c r="T16" s="469"/>
     </row>
     <row r="17" ht="18.6" customHeight="1" spans="2:20">
-      <c r="B17" s="442"/>
-      <c r="C17" s="443"/>
-      <c r="D17" s="443"/>
-      <c r="E17" s="444"/>
-      <c r="F17" s="441"/>
-      <c r="G17" s="441"/>
-      <c r="H17" s="441"/>
-      <c r="I17" s="441"/>
+      <c r="B17" s="445"/>
+      <c r="C17" s="446"/>
+      <c r="D17" s="446"/>
+      <c r="E17" s="447"/>
+      <c r="F17" s="444"/>
+      <c r="G17" s="444"/>
+      <c r="H17" s="444"/>
+      <c r="I17" s="444"/>
       <c r="L17" s="469"/>
       <c r="M17" s="470"/>
-      <c r="N17" s="470"/>
-      <c r="O17" s="471"/>
-      <c r="P17" s="460"/>
-      <c r="Q17" s="457"/>
-      <c r="R17" s="458"/>
-      <c r="S17" s="458"/>
-      <c r="T17" s="459"/>
+      <c r="N17" s="469"/>
+      <c r="O17" s="470"/>
+      <c r="P17" s="471"/>
+      <c r="Q17" s="469"/>
+      <c r="R17" s="470"/>
+      <c r="S17" s="470"/>
+      <c r="T17" s="469"/>
     </row>
     <row r="18" ht="18.6" customHeight="1" spans="2:20">
-      <c r="B18" s="442"/>
-      <c r="C18" s="443"/>
-      <c r="D18" s="443"/>
-      <c r="E18" s="444"/>
-      <c r="F18" s="441"/>
-      <c r="G18" s="441"/>
-      <c r="H18" s="441">
+      <c r="B18" s="445"/>
+      <c r="C18" s="446"/>
+      <c r="D18" s="446"/>
+      <c r="E18" s="447"/>
+      <c r="F18" s="444"/>
+      <c r="G18" s="444"/>
+      <c r="H18" s="444">
         <f>スタート!G105+スタート!C102-スタート!C103+スタート!C105-スタート!C106</f>
         <v>0</v>
       </c>
-      <c r="I18" s="441"/>
+      <c r="I18" s="444"/>
       <c r="L18" s="469"/>
       <c r="M18" s="470"/>
-      <c r="N18" s="470"/>
-      <c r="O18" s="471"/>
-      <c r="P18" s="460"/>
-      <c r="Q18" s="457"/>
-      <c r="R18" s="458"/>
-      <c r="S18" s="458"/>
-      <c r="T18" s="459"/>
+      <c r="N18" s="469"/>
+      <c r="O18" s="470"/>
+      <c r="P18" s="471"/>
+      <c r="Q18" s="469"/>
+      <c r="R18" s="470"/>
+      <c r="S18" s="470"/>
+      <c r="T18" s="469"/>
     </row>
     <row r="19" ht="18.6" customHeight="1" spans="2:20">
-      <c r="B19" s="442"/>
-      <c r="C19" s="443"/>
-      <c r="D19" s="443"/>
-      <c r="E19" s="444"/>
-      <c r="F19" s="441"/>
-      <c r="G19" s="441"/>
-      <c r="H19" s="441"/>
-      <c r="I19" s="441"/>
-      <c r="L19" s="469"/>
-      <c r="M19" s="470"/>
-      <c r="N19" s="470"/>
-      <c r="O19" s="471"/>
-      <c r="P19" s="460"/>
-      <c r="Q19" s="457"/>
-      <c r="R19" s="458"/>
-      <c r="S19" s="458"/>
-      <c r="T19" s="459"/>
+      <c r="B19" s="445"/>
+      <c r="C19" s="446"/>
+      <c r="D19" s="446"/>
+      <c r="E19" s="447"/>
+      <c r="F19" s="444"/>
+      <c r="G19" s="444"/>
+      <c r="H19" s="444"/>
+      <c r="I19" s="444"/>
+      <c r="L19" s="470"/>
+      <c r="M19" s="471"/>
+      <c r="N19" s="469"/>
+      <c r="O19" s="470"/>
+      <c r="P19" s="471"/>
+      <c r="Q19" s="469"/>
+      <c r="R19" s="470"/>
+      <c r="S19" s="470"/>
+      <c r="T19" s="469"/>
     </row>
     <row r="20" ht="18.6" customHeight="1" spans="2:20">
-      <c r="B20" s="442"/>
-      <c r="C20" s="443"/>
-      <c r="D20" s="443"/>
-      <c r="E20" s="444"/>
-      <c r="F20" s="441"/>
-      <c r="G20" s="441"/>
-      <c r="H20" s="441"/>
-      <c r="I20" s="441"/>
-      <c r="L20" s="469"/>
-      <c r="M20" s="470"/>
-      <c r="N20" s="470"/>
-      <c r="O20" s="471"/>
-      <c r="P20" s="460"/>
-      <c r="Q20" s="457"/>
-      <c r="R20" s="458"/>
-      <c r="S20" s="458"/>
-      <c r="T20" s="459"/>
+      <c r="B20" s="445"/>
+      <c r="C20" s="446"/>
+      <c r="D20" s="446"/>
+      <c r="E20" s="447"/>
+      <c r="F20" s="444"/>
+      <c r="G20" s="444"/>
+      <c r="H20" s="444"/>
+      <c r="I20" s="444"/>
+      <c r="L20" s="470"/>
+      <c r="M20" s="471"/>
+      <c r="N20" s="469"/>
+      <c r="O20" s="470"/>
+      <c r="P20" s="471"/>
+      <c r="Q20" s="469"/>
+      <c r="R20" s="470"/>
+      <c r="S20" s="470"/>
+      <c r="T20" s="469"/>
     </row>
     <row r="21" ht="18.6" customHeight="1" spans="2:20">
-      <c r="B21" s="442"/>
-      <c r="C21" s="443"/>
-      <c r="D21" s="443"/>
-      <c r="E21" s="444"/>
-      <c r="F21" s="441"/>
-      <c r="G21" s="441"/>
-      <c r="H21" s="441"/>
-      <c r="I21" s="441"/>
-      <c r="L21" s="469"/>
-      <c r="M21" s="470"/>
+      <c r="B21" s="445"/>
+      <c r="C21" s="446"/>
+      <c r="D21" s="446"/>
+      <c r="E21" s="447"/>
+      <c r="F21" s="444"/>
+      <c r="G21" s="444"/>
+      <c r="H21" s="444"/>
+      <c r="I21" s="444"/>
+      <c r="L21" s="470"/>
+      <c r="M21" s="471"/>
       <c r="N21" s="470"/>
       <c r="O21" s="471"/>
-      <c r="P21" s="460"/>
-      <c r="Q21" s="457"/>
-      <c r="R21" s="458"/>
-      <c r="S21" s="458"/>
-      <c r="T21" s="459"/>
+      <c r="P21" s="471"/>
+      <c r="Q21" s="469"/>
+      <c r="R21" s="470"/>
+      <c r="S21" s="470"/>
+      <c r="T21" s="469"/>
     </row>
     <row r="22" ht="18.6" customHeight="1" spans="2:20">
-      <c r="B22" s="445"/>
-      <c r="C22" s="446"/>
-      <c r="D22" s="446"/>
-      <c r="E22" s="447"/>
-      <c r="F22" s="441"/>
-      <c r="G22" s="441"/>
-      <c r="H22" s="441"/>
-      <c r="I22" s="441"/>
-      <c r="L22" s="472"/>
-      <c r="M22" s="473"/>
-      <c r="N22" s="473"/>
-      <c r="O22" s="474"/>
-      <c r="P22" s="465"/>
-      <c r="Q22" s="462"/>
-      <c r="R22" s="463"/>
-      <c r="S22" s="463"/>
-      <c r="T22" s="464"/>
+      <c r="B22" s="448"/>
+      <c r="C22" s="449"/>
+      <c r="D22" s="449"/>
+      <c r="E22" s="450"/>
+      <c r="F22" s="444"/>
+      <c r="G22" s="444"/>
+      <c r="H22" s="444"/>
+      <c r="I22" s="444"/>
+      <c r="L22" s="470"/>
+      <c r="M22" s="471"/>
+      <c r="N22" s="470"/>
+      <c r="O22" s="471"/>
+      <c r="P22" s="471"/>
+      <c r="Q22" s="469"/>
+      <c r="R22" s="469"/>
+      <c r="S22" s="469"/>
+      <c r="T22" s="469"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="448" t="s">
+      <c r="B24" s="451" t="s">
         <v>217</v>
       </c>
       <c r="C24" s="12"/>
@@ -22344,10 +22110,10 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="398"/>
+      <c r="T24" s="401"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="449"/>
+      <c r="B25" s="452"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -22365,10 +22131,10 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="399"/>
+      <c r="T25" s="402"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="449"/>
+      <c r="B26" s="452"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -22386,10 +22152,10 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="399"/>
+      <c r="T26" s="402"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="449"/>
+      <c r="B27" s="452"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -22407,10 +22173,10 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="399"/>
+      <c r="T27" s="402"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="449"/>
+      <c r="B28" s="452"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -22428,10 +22194,10 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="399"/>
+      <c r="T28" s="402"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="449"/>
+      <c r="B29" s="452"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -22449,10 +22215,10 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="399"/>
+      <c r="T29" s="402"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="449"/>
+      <c r="B30" s="452"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -22470,10 +22236,10 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
-      <c r="T30" s="399"/>
+      <c r="T30" s="402"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="449"/>
+      <c r="B31" s="452"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
@@ -22491,10 +22257,10 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="399"/>
+      <c r="T31" s="402"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="449"/>
+      <c r="B32" s="452"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
@@ -22512,10 +22278,10 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="399"/>
+      <c r="T32" s="402"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="449"/>
+      <c r="B33" s="452"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -22533,10 +22299,10 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="399"/>
+      <c r="T33" s="402"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="449"/>
+      <c r="B34" s="452"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -22554,10 +22320,10 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="399"/>
+      <c r="T34" s="402"/>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="449"/>
+      <c r="B35" s="452"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
@@ -22575,39 +22341,37 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="399"/>
+      <c r="T35" s="402"/>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="450"/>
-      <c r="C36" s="397"/>
-      <c r="D36" s="397"/>
-      <c r="E36" s="397"/>
-      <c r="F36" s="397"/>
-      <c r="G36" s="397"/>
-      <c r="H36" s="397"/>
-      <c r="I36" s="397"/>
-      <c r="J36" s="397"/>
-      <c r="K36" s="397"/>
-      <c r="L36" s="397"/>
-      <c r="M36" s="397"/>
-      <c r="N36" s="397"/>
-      <c r="O36" s="397"/>
-      <c r="P36" s="397"/>
-      <c r="Q36" s="397"/>
-      <c r="R36" s="397"/>
-      <c r="S36" s="397"/>
-      <c r="T36" s="400"/>
+      <c r="B36" s="453"/>
+      <c r="C36" s="400"/>
+      <c r="D36" s="400"/>
+      <c r="E36" s="400"/>
+      <c r="F36" s="400"/>
+      <c r="G36" s="400"/>
+      <c r="H36" s="400"/>
+      <c r="I36" s="400"/>
+      <c r="J36" s="400"/>
+      <c r="K36" s="400"/>
+      <c r="L36" s="400"/>
+      <c r="M36" s="400"/>
+      <c r="N36" s="400"/>
+      <c r="O36" s="400"/>
+      <c r="P36" s="400"/>
+      <c r="Q36" s="400"/>
+      <c r="R36" s="400"/>
+      <c r="S36" s="400"/>
+      <c r="T36" s="403"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1"/>
-  <mergeCells count="16">
+  <mergeCells count="13">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B24:B36"/>
     <mergeCell ref="P3:P12"/>
-    <mergeCell ref="P13:P22"/>
     <mergeCell ref="C24:T36"/>
-    <mergeCell ref="Q13:T22"/>
     <mergeCell ref="H18:I22"/>
     <mergeCell ref="B3:E12"/>
     <mergeCell ref="F3:I12"/>
@@ -22616,7 +22380,6 @@
     <mergeCell ref="Q3:T12"/>
     <mergeCell ref="F13:G22"/>
     <mergeCell ref="H13:I17"/>
-    <mergeCell ref="L13:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape"/>
@@ -22673,138 +22436,138 @@
       <c r="O2" s="180"/>
     </row>
     <row r="3" ht="47.25" spans="1:13">
-      <c r="A3" s="401" t="s">
+      <c r="A3" s="404" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="402"/>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="404"/>
-      <c r="F3" s="405" t="s">
+      <c r="B3" s="405"/>
+      <c r="C3" s="406"/>
+      <c r="D3" s="406"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="408" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="406" t="s">
+      <c r="H3" s="409" t="s">
         <v>220</v>
       </c>
-      <c r="I3" s="408"/>
-      <c r="J3" s="409"/>
-      <c r="K3" s="409"/>
-      <c r="L3" s="410"/>
-      <c r="M3" s="405" t="s">
+      <c r="I3" s="411"/>
+      <c r="J3" s="412"/>
+      <c r="K3" s="412"/>
+      <c r="L3" s="413"/>
+      <c r="M3" s="408" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" ht="47.25" spans="1:13">
-      <c r="A4" s="407" t="s">
+      <c r="A4" s="410" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="408"/>
-      <c r="C4" s="409"/>
-      <c r="D4" s="409"/>
-      <c r="E4" s="410"/>
-      <c r="F4" s="405" t="s">
+      <c r="B4" s="411"/>
+      <c r="C4" s="412"/>
+      <c r="D4" s="412"/>
+      <c r="E4" s="413"/>
+      <c r="F4" s="408" t="s">
         <v>219</v>
       </c>
-      <c r="H4" s="411" t="s">
+      <c r="H4" s="414" t="s">
         <v>221</v>
       </c>
-      <c r="I4" s="408"/>
-      <c r="J4" s="409"/>
-      <c r="K4" s="409"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="405" t="s">
+      <c r="I4" s="411"/>
+      <c r="J4" s="412"/>
+      <c r="K4" s="412"/>
+      <c r="L4" s="413"/>
+      <c r="M4" s="408" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="5" ht="47.25" spans="1:13">
-      <c r="A5" s="412" t="s">
+      <c r="A5" s="415" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="408"/>
-      <c r="C5" s="409"/>
-      <c r="D5" s="409"/>
-      <c r="E5" s="410"/>
-      <c r="F5" s="405" t="s">
+      <c r="B5" s="411"/>
+      <c r="C5" s="412"/>
+      <c r="D5" s="412"/>
+      <c r="E5" s="413"/>
+      <c r="F5" s="408" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="401" t="s">
+      <c r="H5" s="404" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="413">
+      <c r="I5" s="416">
         <f>B6+I3-I4</f>
         <v>0</v>
       </c>
-      <c r="J5" s="414"/>
-      <c r="K5" s="414"/>
-      <c r="L5" s="415"/>
-      <c r="M5" s="405" t="s">
+      <c r="J5" s="417"/>
+      <c r="K5" s="417"/>
+      <c r="L5" s="418"/>
+      <c r="M5" s="408" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:6">
-      <c r="A6" s="407" t="s">
+      <c r="A6" s="410" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="413">
+      <c r="B6" s="416">
         <f>B3+B4-B5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="414"/>
-      <c r="D6" s="414"/>
-      <c r="E6" s="415"/>
-      <c r="F6" s="405" t="s">
+      <c r="C6" s="417"/>
+      <c r="D6" s="417"/>
+      <c r="E6" s="418"/>
+      <c r="F6" s="408" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="7" ht="47.25" spans="1:13">
-      <c r="A7" s="416"/>
-      <c r="B7" s="417"/>
-      <c r="C7" s="418"/>
-      <c r="D7" s="418"/>
-      <c r="E7" s="418"/>
-      <c r="F7" s="419"/>
-      <c r="H7" s="420" t="s">
+      <c r="A7" s="419"/>
+      <c r="B7" s="420"/>
+      <c r="C7" s="421"/>
+      <c r="D7" s="421"/>
+      <c r="E7" s="421"/>
+      <c r="F7" s="422"/>
+      <c r="H7" s="423" t="s">
         <v>222</v>
       </c>
-      <c r="I7" s="425" t="e">
+      <c r="I7" s="428" t="e">
         <f>I5/スタート!G106</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="425"/>
-      <c r="K7" s="425"/>
-      <c r="L7" s="425"/>
-      <c r="M7" s="426"/>
+      <c r="J7" s="428"/>
+      <c r="K7" s="428"/>
+      <c r="L7" s="428"/>
+      <c r="M7" s="429"/>
     </row>
     <row r="8" ht="46.5" spans="1:6">
-      <c r="A8" s="421"/>
-      <c r="B8" s="422"/>
-      <c r="F8" s="423"/>
+      <c r="A8" s="424"/>
+      <c r="B8" s="425"/>
+      <c r="F8" s="426"/>
     </row>
     <row r="9" ht="46.5" spans="1:6">
-      <c r="A9" s="424"/>
-      <c r="B9" s="422"/>
-      <c r="F9" s="423"/>
+      <c r="A9" s="427"/>
+      <c r="B9" s="425"/>
+      <c r="F9" s="426"/>
     </row>
     <row r="10" ht="46.5" spans="2:6">
-      <c r="B10" s="422"/>
-      <c r="C10" s="422"/>
-      <c r="D10" s="422"/>
-      <c r="E10" s="422"/>
-      <c r="F10" s="423"/>
+      <c r="B10" s="425"/>
+      <c r="C10" s="425"/>
+      <c r="D10" s="425"/>
+      <c r="E10" s="425"/>
+      <c r="F10" s="426"/>
     </row>
     <row r="11" ht="46.5" spans="2:6">
-      <c r="B11" s="422"/>
-      <c r="C11" s="422"/>
-      <c r="D11" s="422"/>
-      <c r="E11" s="422"/>
-      <c r="F11" s="423"/>
+      <c r="B11" s="425"/>
+      <c r="C11" s="425"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="425"/>
+      <c r="F11" s="426"/>
     </row>
     <row r="12" ht="46.5" spans="2:6">
-      <c r="B12" s="422"/>
-      <c r="C12" s="422"/>
-      <c r="D12" s="422"/>
-      <c r="E12" s="422"/>
-      <c r="F12" s="423"/>
+      <c r="B12" s="425"/>
+      <c r="C12" s="425"/>
+      <c r="D12" s="425"/>
+      <c r="E12" s="425"/>
+      <c r="F12" s="426"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1"/>
@@ -22840,8 +22603,8 @@
   </sheetPr>
   <dimension ref="B1:U39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -22855,7 +22618,7 @@
     <col min="15" max="15" width="11.247619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="2:2">
+    <row r="1" spans="2:2">
       <c r="B1">
         <f>スタート!C1</f>
         <v>0</v>
@@ -22895,7 +22658,7 @@
       <c r="D3" s="342"/>
       <c r="E3" s="343"/>
       <c r="F3" s="341">
-        <f>'⑥製造（経費)'!I2</f>
+        <f>'⑥製造（経費)'!I2+'⑤製造原価 (人）'!N2</f>
         <v>0</v>
       </c>
       <c r="G3" s="344"/>
@@ -23092,7 +22855,7 @@
       <c r="S11" s="381"/>
       <c r="T11" s="382"/>
     </row>
-    <row r="12" ht="15.75" spans="2:20">
+    <row r="12" spans="2:20">
       <c r="B12" s="345"/>
       <c r="C12" s="346"/>
       <c r="D12" s="346"/>
@@ -23130,21 +22893,15 @@
       <c r="I13" s="356"/>
       <c r="J13" s="239"/>
       <c r="K13" s="239"/>
-      <c r="L13" s="376">
-        <v>0</v>
-      </c>
-      <c r="M13" s="377"/>
-      <c r="N13" s="377"/>
-      <c r="O13" s="378"/>
-      <c r="P13" s="379" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q13" s="376">
-        <v>0</v>
-      </c>
-      <c r="R13" s="377"/>
-      <c r="S13" s="377"/>
-      <c r="T13" s="378"/>
+      <c r="L13" s="389"/>
+      <c r="M13" s="389"/>
+      <c r="N13" s="389"/>
+      <c r="O13" s="389"/>
+      <c r="P13" s="390"/>
+      <c r="Q13" s="389"/>
+      <c r="R13" s="389"/>
+      <c r="S13" s="389"/>
+      <c r="T13" s="389"/>
     </row>
     <row r="14" ht="18.6" customHeight="1" spans="2:20">
       <c r="B14" s="345"/>
@@ -23157,15 +22914,15 @@
       <c r="I14" s="357"/>
       <c r="J14" s="239"/>
       <c r="K14" s="239"/>
-      <c r="L14" s="380"/>
-      <c r="M14" s="381"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="382"/>
-      <c r="P14" s="383"/>
-      <c r="Q14" s="380"/>
-      <c r="R14" s="381"/>
-      <c r="S14" s="381"/>
-      <c r="T14" s="382"/>
+      <c r="L14" s="389"/>
+      <c r="M14" s="391"/>
+      <c r="N14" s="391"/>
+      <c r="O14" s="389"/>
+      <c r="P14" s="390"/>
+      <c r="Q14" s="389"/>
+      <c r="R14" s="391"/>
+      <c r="S14" s="391"/>
+      <c r="T14" s="389"/>
     </row>
     <row r="15" ht="18.6" customHeight="1" spans="2:20">
       <c r="B15" s="345"/>
@@ -23178,15 +22935,15 @@
       <c r="I15" s="357"/>
       <c r="J15" s="239"/>
       <c r="K15" s="239"/>
-      <c r="L15" s="380"/>
-      <c r="M15" s="381"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="382"/>
-      <c r="P15" s="383"/>
-      <c r="Q15" s="380"/>
-      <c r="R15" s="381"/>
-      <c r="S15" s="381"/>
-      <c r="T15" s="382"/>
+      <c r="L15" s="389"/>
+      <c r="M15" s="391"/>
+      <c r="N15" s="391"/>
+      <c r="O15" s="389"/>
+      <c r="P15" s="390"/>
+      <c r="Q15" s="389"/>
+      <c r="R15" s="391"/>
+      <c r="S15" s="391"/>
+      <c r="T15" s="389"/>
     </row>
     <row r="16" ht="18.6" customHeight="1" spans="2:20">
       <c r="B16" s="345"/>
@@ -23205,15 +22962,15 @@
       </c>
       <c r="J16" s="239"/>
       <c r="K16" s="239"/>
-      <c r="L16" s="380"/>
-      <c r="M16" s="381"/>
-      <c r="N16" s="381"/>
-      <c r="O16" s="382"/>
-      <c r="P16" s="383"/>
-      <c r="Q16" s="380"/>
-      <c r="R16" s="381"/>
-      <c r="S16" s="381"/>
-      <c r="T16" s="382"/>
+      <c r="L16" s="389"/>
+      <c r="M16" s="391"/>
+      <c r="N16" s="391"/>
+      <c r="O16" s="389"/>
+      <c r="P16" s="390"/>
+      <c r="Q16" s="389"/>
+      <c r="R16" s="391"/>
+      <c r="S16" s="391"/>
+      <c r="T16" s="389"/>
     </row>
     <row r="17" ht="18.6" customHeight="1" spans="2:20">
       <c r="B17" s="345"/>
@@ -23226,18 +22983,18 @@
       </c>
       <c r="G17" s="361"/>
       <c r="H17" s="362"/>
-      <c r="I17" s="389"/>
+      <c r="I17" s="392"/>
       <c r="J17" s="239"/>
       <c r="K17" s="239"/>
-      <c r="L17" s="380"/>
-      <c r="M17" s="381"/>
-      <c r="N17" s="381"/>
-      <c r="O17" s="382"/>
-      <c r="P17" s="383"/>
-      <c r="Q17" s="380"/>
-      <c r="R17" s="381"/>
-      <c r="S17" s="381"/>
-      <c r="T17" s="382"/>
+      <c r="L17" s="389"/>
+      <c r="M17" s="391"/>
+      <c r="N17" s="391"/>
+      <c r="O17" s="389"/>
+      <c r="P17" s="390"/>
+      <c r="Q17" s="389"/>
+      <c r="R17" s="391"/>
+      <c r="S17" s="391"/>
+      <c r="T17" s="389"/>
     </row>
     <row r="18" ht="18.6" customHeight="1" spans="2:20">
       <c r="B18" s="345"/>
@@ -23250,18 +23007,18 @@
         <f>F13-H13</f>
         <v>0</v>
       </c>
-      <c r="I18" s="390"/>
+      <c r="I18" s="393"/>
       <c r="J18" s="239"/>
       <c r="K18" s="239"/>
-      <c r="L18" s="380"/>
-      <c r="M18" s="381"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="382"/>
-      <c r="P18" s="383"/>
-      <c r="Q18" s="380"/>
-      <c r="R18" s="381"/>
-      <c r="S18" s="381"/>
-      <c r="T18" s="382"/>
+      <c r="L18" s="389"/>
+      <c r="M18" s="391"/>
+      <c r="N18" s="391"/>
+      <c r="O18" s="389"/>
+      <c r="P18" s="390"/>
+      <c r="Q18" s="389"/>
+      <c r="R18" s="391"/>
+      <c r="S18" s="391"/>
+      <c r="T18" s="389"/>
     </row>
     <row r="19" ht="18.6" customHeight="1" spans="2:20">
       <c r="B19" s="345"/>
@@ -23274,15 +23031,15 @@
       <c r="I19" s="364"/>
       <c r="J19" s="239"/>
       <c r="K19" s="239"/>
-      <c r="L19" s="380"/>
-      <c r="M19" s="381"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="382"/>
-      <c r="P19" s="383"/>
-      <c r="Q19" s="380"/>
-      <c r="R19" s="381"/>
-      <c r="S19" s="381"/>
-      <c r="T19" s="382"/>
+      <c r="L19" s="389"/>
+      <c r="M19" s="391"/>
+      <c r="N19" s="391"/>
+      <c r="O19" s="389"/>
+      <c r="P19" s="390"/>
+      <c r="Q19" s="389"/>
+      <c r="R19" s="391"/>
+      <c r="S19" s="391"/>
+      <c r="T19" s="389"/>
     </row>
     <row r="20" ht="18.6" customHeight="1" spans="2:20">
       <c r="B20" s="366"/>
@@ -23295,15 +23052,15 @@
       <c r="I20" s="364"/>
       <c r="J20" s="239"/>
       <c r="K20" s="239"/>
-      <c r="L20" s="380"/>
-      <c r="M20" s="381"/>
-      <c r="N20" s="381"/>
-      <c r="O20" s="382"/>
-      <c r="P20" s="383"/>
-      <c r="Q20" s="380"/>
-      <c r="R20" s="381"/>
-      <c r="S20" s="381"/>
-      <c r="T20" s="382"/>
+      <c r="L20" s="389"/>
+      <c r="M20" s="391"/>
+      <c r="N20" s="391"/>
+      <c r="O20" s="389"/>
+      <c r="P20" s="390"/>
+      <c r="Q20" s="389"/>
+      <c r="R20" s="391"/>
+      <c r="S20" s="391"/>
+      <c r="T20" s="389"/>
     </row>
     <row r="21" ht="18.6" customHeight="1" spans="2:20">
       <c r="B21" s="369"/>
@@ -23313,21 +23070,21 @@
       <c r="F21" s="366"/>
       <c r="G21" s="353"/>
       <c r="H21" s="371"/>
-      <c r="I21" s="391" t="e">
+      <c r="I21" s="394" t="e">
         <f>H18/B3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="239"/>
       <c r="K21" s="239"/>
-      <c r="L21" s="380"/>
-      <c r="M21" s="381"/>
-      <c r="N21" s="381"/>
-      <c r="O21" s="382"/>
-      <c r="P21" s="383"/>
-      <c r="Q21" s="380"/>
-      <c r="R21" s="381"/>
-      <c r="S21" s="381"/>
-      <c r="T21" s="382"/>
+      <c r="L21" s="389"/>
+      <c r="M21" s="391"/>
+      <c r="N21" s="391"/>
+      <c r="O21" s="389"/>
+      <c r="P21" s="390"/>
+      <c r="Q21" s="389"/>
+      <c r="R21" s="391"/>
+      <c r="S21" s="391"/>
+      <c r="T21" s="389"/>
     </row>
     <row r="22" ht="18.6" customHeight="1" spans="2:20">
       <c r="B22" s="372"/>
@@ -23339,21 +23096,21 @@
       <c r="H22" s="362" t="s">
         <v>226</v>
       </c>
-      <c r="I22" s="392">
+      <c r="I22" s="395">
         <f>①利益!I5</f>
         <v>0</v>
       </c>
       <c r="J22" s="239"/>
       <c r="K22" s="239"/>
-      <c r="L22" s="385"/>
-      <c r="M22" s="386"/>
-      <c r="N22" s="386"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="388"/>
-      <c r="Q22" s="385"/>
-      <c r="R22" s="386"/>
-      <c r="S22" s="386"/>
-      <c r="T22" s="387"/>
+      <c r="L22" s="389"/>
+      <c r="M22" s="389"/>
+      <c r="N22" s="389"/>
+      <c r="O22" s="389"/>
+      <c r="P22" s="390"/>
+      <c r="Q22" s="389"/>
+      <c r="R22" s="389"/>
+      <c r="S22" s="389"/>
+      <c r="T22" s="389"/>
     </row>
     <row r="24" ht="15.75" spans="2:12">
       <c r="B24" s="373" t="s">
@@ -23366,7 +23123,7 @@
       <c r="G24" s="373"/>
       <c r="H24" s="373"/>
       <c r="I24" s="373"/>
-      <c r="L24" s="393" t="s">
+      <c r="L24" s="396" t="s">
         <v>217</v>
       </c>
     </row>
@@ -23379,7 +23136,7 @@
       <c r="G25" s="374"/>
       <c r="H25" s="374"/>
       <c r="I25" s="374"/>
-      <c r="L25" s="394"/>
+      <c r="L25" s="397"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -23388,7 +23145,7 @@
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
-      <c r="U25" s="398"/>
+      <c r="U25" s="401"/>
     </row>
     <row r="26" spans="2:21">
       <c r="B26" s="374"/>
@@ -23399,7 +23156,7 @@
       <c r="G26" s="374"/>
       <c r="H26" s="374"/>
       <c r="I26" s="374"/>
-      <c r="L26" s="395"/>
+      <c r="L26" s="398"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
@@ -23408,7 +23165,7 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="399"/>
+      <c r="U26" s="402"/>
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="374"/>
@@ -23419,7 +23176,7 @@
       <c r="G27" s="374"/>
       <c r="H27" s="374"/>
       <c r="I27" s="374"/>
-      <c r="L27" s="395"/>
+      <c r="L27" s="398"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -23428,7 +23185,7 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="399"/>
+      <c r="U27" s="402"/>
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="374"/>
@@ -23439,7 +23196,7 @@
       <c r="G28" s="374"/>
       <c r="H28" s="374"/>
       <c r="I28" s="374"/>
-      <c r="L28" s="395"/>
+      <c r="L28" s="398"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -23448,7 +23205,7 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="399"/>
+      <c r="U28" s="402"/>
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="374"/>
@@ -23459,7 +23216,7 @@
       <c r="G29" s="374"/>
       <c r="H29" s="374"/>
       <c r="I29" s="374"/>
-      <c r="L29" s="395"/>
+      <c r="L29" s="398"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -23468,7 +23225,7 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="399"/>
+      <c r="U29" s="402"/>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="374"/>
@@ -23479,7 +23236,7 @@
       <c r="G30" s="374"/>
       <c r="H30" s="374"/>
       <c r="I30" s="374"/>
-      <c r="L30" s="395"/>
+      <c r="L30" s="398"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -23488,7 +23245,7 @@
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="399"/>
+      <c r="U30" s="402"/>
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="374"/>
@@ -23499,7 +23256,7 @@
       <c r="G31" s="374"/>
       <c r="H31" s="374"/>
       <c r="I31" s="374"/>
-      <c r="L31" s="395"/>
+      <c r="L31" s="398"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -23508,7 +23265,7 @@
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="399"/>
+      <c r="U31" s="402"/>
     </row>
     <row r="32" spans="2:21">
       <c r="B32" s="374"/>
@@ -23519,7 +23276,7 @@
       <c r="G32" s="374"/>
       <c r="H32" s="374"/>
       <c r="I32" s="374"/>
-      <c r="L32" s="395"/>
+      <c r="L32" s="398"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
@@ -23528,7 +23285,7 @@
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="399"/>
+      <c r="U32" s="402"/>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="374"/>
@@ -23539,7 +23296,7 @@
       <c r="G33" s="374"/>
       <c r="H33" s="374"/>
       <c r="I33" s="374"/>
-      <c r="L33" s="395"/>
+      <c r="L33" s="398"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -23548,7 +23305,7 @@
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="399"/>
+      <c r="U33" s="402"/>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="374"/>
@@ -23559,7 +23316,7 @@
       <c r="G34" s="374"/>
       <c r="H34" s="374"/>
       <c r="I34" s="374"/>
-      <c r="L34" s="395"/>
+      <c r="L34" s="398"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
@@ -23568,7 +23325,7 @@
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="399"/>
+      <c r="U34" s="402"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="374"/>
@@ -23579,7 +23336,7 @@
       <c r="G35" s="374"/>
       <c r="H35" s="374"/>
       <c r="I35" s="374"/>
-      <c r="L35" s="395"/>
+      <c r="L35" s="398"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
@@ -23588,7 +23345,7 @@
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="399"/>
+      <c r="U35" s="402"/>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="374"/>
@@ -23599,7 +23356,7 @@
       <c r="G36" s="374"/>
       <c r="H36" s="374"/>
       <c r="I36" s="374"/>
-      <c r="L36" s="395"/>
+      <c r="L36" s="398"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
@@ -23608,10 +23365,10 @@
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="399"/>
+      <c r="U36" s="402"/>
     </row>
     <row r="37" spans="12:21">
-      <c r="L37" s="395"/>
+      <c r="L37" s="398"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
@@ -23620,10 +23377,10 @@
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="399"/>
+      <c r="U37" s="402"/>
     </row>
     <row r="38" spans="12:21">
-      <c r="L38" s="395"/>
+      <c r="L38" s="398"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
@@ -23632,23 +23389,23 @@
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="399"/>
+      <c r="U38" s="402"/>
     </row>
     <row r="39" spans="12:21">
-      <c r="L39" s="396"/>
-      <c r="M39" s="397"/>
-      <c r="N39" s="397"/>
-      <c r="O39" s="397"/>
-      <c r="P39" s="397"/>
-      <c r="Q39" s="397"/>
-      <c r="R39" s="397"/>
-      <c r="S39" s="397"/>
-      <c r="T39" s="397"/>
-      <c r="U39" s="400"/>
+      <c r="L39" s="399"/>
+      <c r="M39" s="400"/>
+      <c r="N39" s="400"/>
+      <c r="O39" s="400"/>
+      <c r="P39" s="400"/>
+      <c r="Q39" s="400"/>
+      <c r="R39" s="400"/>
+      <c r="S39" s="400"/>
+      <c r="T39" s="400"/>
+      <c r="U39" s="403"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1"/>
-  <mergeCells count="24">
+  <mergeCells count="21">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="L2:O2"/>
@@ -23656,7 +23413,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="P3:P12"/>
-    <mergeCell ref="P13:P22"/>
     <mergeCell ref="L25:U39"/>
     <mergeCell ref="F17:G20"/>
     <mergeCell ref="F3:I9"/>
@@ -23669,10 +23425,8 @@
     <mergeCell ref="D20:E22"/>
     <mergeCell ref="B24:I36"/>
     <mergeCell ref="Q3:T12"/>
-    <mergeCell ref="Q13:T22"/>
     <mergeCell ref="B3:E19"/>
     <mergeCell ref="L3:O12"/>
-    <mergeCell ref="L13:O22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape"/>
@@ -24680,8 +24434,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P2"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/server/templates/template.xlsx
+++ b/server/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -7184,7 +7184,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52f6306e-e7e4-4aef-9c31-677933469b71}" type="VALUE">
+                    <a:fld id="{01d8e168-6bd8-43f8-bedc-c09860f25a47}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -8072,7 +8072,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62e7eed1-4ea5-4a82-a71d-54cda2675fd9}" type="VALUE">
+                    <a:fld id="{42a8d830-2903-4272-9dfe-096cc10672b2}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -11035,7 +11035,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4406900" y="3927475"/>
+          <a:off x="4406900" y="3917950"/>
           <a:ext cx="558800" cy="467995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11279,7 +11279,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4618355" y="3952875"/>
+          <a:off x="4618355" y="3943350"/>
           <a:ext cx="617855" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11332,7 +11332,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4592955" y="2796540"/>
+          <a:off x="4592955" y="2787015"/>
           <a:ext cx="617855" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11385,7 +11385,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2934335" y="2796540"/>
+          <a:off x="2934335" y="2787015"/>
           <a:ext cx="617855" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11491,7 +11491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2630805" y="4044950"/>
+          <a:off x="2630805" y="4035425"/>
           <a:ext cx="3361055" cy="804545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11570,7 +11570,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11816080" y="7715250"/>
+          <a:off x="11816080" y="7705725"/>
           <a:ext cx="1862455" cy="626110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12201,7 +12201,7 @@
   </sheetPr>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A73" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="I84" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -24286,7 +24286,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+      <selection activeCell="I3" sqref="I3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -24550,7 +24550,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:V40"/>
+      <selection activeCell="H13" sqref="H13:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -24854,7 +24854,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" ht="15.75" spans="1:22">
+    <row r="12" spans="1:22">
       <c r="A12" s="11"/>
       <c r="B12" s="353"/>
       <c r="C12" s="354"/>
@@ -24890,7 +24890,7 @@
       </c>
       <c r="G13" s="364"/>
       <c r="H13" s="349">
-        <f>④経費!I2*1000000/1000000</f>
+        <f>(④経費!I2*1000000+③給料!N2*1000000)/1000000</f>
         <v>0</v>
       </c>
       <c r="I13" s="364"/>
@@ -25581,7 +25581,7 @@
       <c r="V40" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K7P+sV/1aRtWRvFONwoiavnL9KsPoB01FWIT2NOSvD5/2R4sy/KJanBkKBVGzg3UtJN+MLm8q4wQ14TjTH5xMA==" saltValue="BtJlEPE1ByqSTj2CSEctbg==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rvu4HmdLxet1kBUyQ76Gs4kNMWGGJwMSCVq6G+IAgCB3U9DNlVz38RlJbDx6zrk4IRUeixVheSxQh2RV+ZFa0g==" saltValue="51NsnPRx1WMy2N8YFcKQ5A==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="21">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:I2"/>
@@ -25617,8 +25617,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -26412,7 +26412,7 @@
       <c r="Q30" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4NTOkJl0hN+/FjAz+0tIgOHMA896c5f6UC85aU5t0zC8cpUzU28Dd12dTsfTQmcjrXmWRSxFJp6a9HHEF6AzxQ==" saltValue="tyVZW2JIFk1xLZ7jULx9CA==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OZrku1EfXIV1kyOS+qYmL3/f6LEpyc/qKBoLBleFe4AGd4P/JmL0F8p1P0ZPNhYupQ5lIykadeSvk80lklXVZQ==" saltValue="NGf6oKKHPVPH587oJSlNgg==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="N2:P2"/>
@@ -26431,8 +26431,8 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M49"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -27307,8 +27307,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:R32"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28169,7 +28169,7 @@
       <c r="R32" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B5dhWZxmc6riPrxpSnwuHT0327q7QuLXm0NOh05uWHf6CstciJy6IajAk9GjPxjB1suM0iEWZLoDc7x0+jXxPg==" saltValue="V4eJPb36IyTmrXrXd9UXRw==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XkYp19lYupFIzhFC5BaWwI82sHmMfkLmROZ9N8BZCpLWfZ+cJHHgfptDIgx5U6Q9BxQCCls/zFaF0OpSU+u7fQ==" saltValue="64KF9LLHOXSyjYGvCpyw5g==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="N2:P2"/>
@@ -28188,8 +28188,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N47"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28314,7 +28314,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="81">
-        <f>スタート!D60</f>
+        <f>'⑤製造原価 (人）'!E14</f>
         <v>0</v>
       </c>
       <c r="J5" s="272"/>
@@ -28335,7 +28335,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="281">
-        <f>スタート!D61</f>
+        <f>'⑤製造原価 (人）'!J14</f>
         <v>0</v>
       </c>
       <c r="J6" s="272"/>
@@ -28356,7 +28356,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="281">
-        <f>スタート!D62</f>
+        <f>'⑤製造原価 (人）'!O14</f>
         <v>0</v>
       </c>
       <c r="J7" s="272"/>
@@ -29046,7 +29046,7 @@
       <c r="N47" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tGShNCkisPLxe+gtk/qKRtclV1HXcOU0jJ6fFpOxxhEE3JPILKqSaJo/5zFj8xEW0JYnpcCoSzbsgl5uHEhruw==" saltValue="ZUAU2lY43or35PXndPc7mg==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tMjea2mKKCp7EHj/llV6dKoiR2OaangRaZxnxXbVd/kNkJXJEnBYL9sgPgzE6wwbBk98rn0jV/Y9eaVwfzg2aw==" saltValue="uzFtr6m4TRqdjOIY/pKdnA==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:H2"/>

--- a/server/templates/template.xlsx
+++ b/server/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -7184,14 +7184,9 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01d8e168-6bd8-43f8-bedc-c09860f25a47}" type="VALUE">
+                    <a:fld id="{b78ac04e-2039-4f14-baa5-dbef1978e8b5}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:cs typeface="+mn-ea"/>
-                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8072,14 +8067,9 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42a8d830-2903-4272-9dfe-096cc10672b2}" type="VALUE">
+                    <a:fld id="{6cc60fe4-d4b8-4ef5-bf04-4d692277f3fc}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:cs typeface="+mn-ea"/>
-                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9623,7 +9613,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="2125980"/>
+        <a:off x="0" y="2097405"/>
         <a:ext cx="5384800" cy="2476500"/>
       </xdr:xfrm>
       <a:graphic>
@@ -9653,7 +9643,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5918200" y="2133600"/>
+        <a:off x="5918200" y="2105025"/>
         <a:ext cx="4912995" cy="2476500"/>
       </xdr:xfrm>
       <a:graphic>
@@ -9685,7 +9675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8036560" y="0"/>
-          <a:ext cx="2924175" cy="1943100"/>
+          <a:ext cx="2924175" cy="1914525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9760,7 +9750,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8825230" y="4800600"/>
+          <a:off x="8825230" y="4772025"/>
           <a:ext cx="1789430" cy="613410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9798,7 +9788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10974705" y="26035"/>
-          <a:ext cx="5055870" cy="2047875"/>
+          <a:ext cx="5055870" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10921,7 +10911,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="558800" cy="441343"/>
+    <xdr:ext cx="558800" cy="450868"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
@@ -10930,7 +10920,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2663190" y="2765425"/>
-          <a:ext cx="558800" cy="441325"/>
+          <a:ext cx="558800" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10974,7 +10964,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="558800" cy="441343"/>
+    <xdr:ext cx="558800" cy="450868"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
@@ -10983,7 +10973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4423410" y="2774315"/>
-          <a:ext cx="558800" cy="441325"/>
+          <a:ext cx="558800" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11035,7 +11025,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4406900" y="3917950"/>
+          <a:off x="4406900" y="3927475"/>
           <a:ext cx="558800" cy="467995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11279,7 +11269,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4618355" y="3943350"/>
+          <a:off x="4618355" y="3952875"/>
           <a:ext cx="617855" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11332,7 +11322,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4592955" y="2787015"/>
+          <a:off x="4592955" y="2796540"/>
           <a:ext cx="617855" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11385,7 +11375,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2934335" y="2787015"/>
+          <a:off x="2934335" y="2796540"/>
           <a:ext cx="617855" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11491,7 +11481,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2630805" y="4035425"/>
+          <a:off x="2630805" y="4044950"/>
           <a:ext cx="3361055" cy="804545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11570,7 +11560,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11816080" y="7705725"/>
+          <a:off x="11816080" y="7715250"/>
           <a:ext cx="1862455" cy="626110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13626,8 +13616,8 @@
   </sheetPr>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:S38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69523809523809" defaultRowHeight="15"/>
@@ -13671,7 +13661,7 @@
       <c r="R1" s="173"/>
       <c r="S1" s="173"/>
     </row>
-    <row r="2" ht="15.75" spans="1:19">
+    <row r="2" spans="1:19">
       <c r="A2" s="174" t="s">
         <v>289</v>
       </c>
@@ -13722,12 +13712,12 @@
       </c>
       <c r="S2" s="173"/>
     </row>
-    <row r="3" ht="15.75" spans="1:19">
+    <row r="3" spans="1:19">
       <c r="A3" s="174" t="s">
         <v>293</v>
       </c>
       <c r="B3" s="175">
-        <f>'⑥製造（経費)'!I2*1000000</f>
+        <f>'②⑧MQ（未来）'!F3*1000000</f>
         <v>0</v>
       </c>
       <c r="C3" s="176"/>
@@ -13781,7 +13771,7 @@
       </c>
       <c r="S3" s="173"/>
     </row>
-    <row r="4" ht="15.75" spans="1:19">
+    <row r="4" spans="1:19">
       <c r="A4" s="174" t="s">
         <v>294</v>
       </c>
@@ -14727,7 +14717,7 @@
       <c r="S38" s="173"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7oqZx4WxeoRsOoXsyIzHj7qlLnGFPYnSbcVX4+ApidS4LospKommtbXKaGrHtkdhGM+L0aVCCBEE0U6xj1OgFA==" saltValue="fkh6xw6sU9kLKbnJn0UllA==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RjmvHDVxK96b0y+5Wh/jqg9U4JTwnCcy89aVPul7Uqzt0kKTgckDQbSgl+XuKipdILn9kk1Z8MX1VX/Odjev5g==" saltValue="okApC6Mu9Zf6nEGyiOG6Hw==" spinCount="100000" sheet="1" objects="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
@@ -24854,7 +24844,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" ht="15.75" spans="1:22">
       <c r="A12" s="11"/>
       <c r="B12" s="353"/>
       <c r="C12" s="354"/>
@@ -25617,7 +25607,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -26432,7 +26422,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -26780,7 +26770,7 @@
         <v>250</v>
       </c>
       <c r="L17" s="264">
-        <f>SUM(スタート!C29:C34)</f>
+        <f>SUM(スタート!C29:C36)</f>
         <v>0</v>
       </c>
       <c r="M17" s="335"/>
@@ -27286,7 +27276,7 @@
       <c r="M49" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fzT0NLqSO7p0fHGj6S2LWviE5KOlgTyzWNBnXmVLrNt0GeerXY3G8UzM/gKqAKKOtsNJhCoSakFBX90pl1IITA==" saltValue="Vaw5wFUMJdRFRNYURk5J8Q==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LAKz0zxaVEE/SKFbRyVXyz9Fr5d56Jglzak3Sv6XrsrpjpcH0Z1r1doHjJ4nh+GG5Egz1nNVccsyJRwQwDp9vw==" saltValue="aQ+E/jhjLFE/QiSBTIJPWA==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:H2"/>

--- a/server/templates/template.xlsx
+++ b/server/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="9"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -1181,7 +1181,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;"/>
+    <numFmt numFmtId="179" formatCode="General&quot;月&quot;"/>
     <numFmt numFmtId="180" formatCode="#,##0.0;[Red]\-#,##0.0"/>
     <numFmt numFmtId="181" formatCode="#,##0.000_ "/>
     <numFmt numFmtId="182" formatCode="#,##0.0_ "/>
@@ -1203,7 +1203,7 @@
     <numFmt numFmtId="198" formatCode="&quot;¥&quot;#,##0.0;&quot;¥&quot;\-#,##0.0"/>
     <numFmt numFmtId="199" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="74">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1509,6 +1509,12 @@
       <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -2014,7 +2020,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="144">
+  <borders count="145">
     <border>
       <left/>
       <right/>
@@ -3447,14 +3453,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3791,6 +3797,19 @@
       </right>
       <top/>
       <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -3939,133 +3958,133 @@
     <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="136" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="137" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="137" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="137" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="138" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="139" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="139" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="26" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="26" borderId="139" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="26" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="27" borderId="141" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="26" borderId="140" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="142" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="27" borderId="142" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="143" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="144" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="73" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4149,7 +4168,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -5956,7 +5975,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="47" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection hidden="1"/>
     </xf>
@@ -5972,7 +5991,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6006,7 +6025,7 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="48" fillId="18" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="49" fillId="18" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6020,7 +6039,7 @@
     <xf numFmtId="180" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="48" fillId="18" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="49" fillId="18" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6034,7 +6053,7 @@
     <xf numFmtId="178" fontId="17" fillId="2" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="18" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6045,7 +6064,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="48" fillId="18" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="49" fillId="18" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6059,7 +6078,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="48" fillId="18" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="49" fillId="18" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6073,7 +6092,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6130,15 +6149,15 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6168,7 +6187,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6183,7 +6202,7 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6194,7 +6213,7 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="129" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6205,7 +6224,7 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6227,7 +6246,7 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6238,7 +6257,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6252,7 +6271,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6263,7 +6282,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6271,7 +6290,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6279,7 +6298,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6294,7 +6313,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6302,7 +6321,7 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="49" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="50" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="180" fontId="17" fillId="2" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6315,14 +6334,14 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6442,7 +6461,7 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6461,11 +6480,11 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="180" fontId="17" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6481,7 +6500,7 @@
     <xf numFmtId="180" fontId="17" fillId="18" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="48" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="18" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -6491,7 +6510,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="51" fillId="2" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="52" fillId="2" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6500,7 +6519,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="51" fillId="2" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="52" fillId="2" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -6513,22 +6532,22 @@
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="136" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="180" fontId="51" fillId="2" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="52" fillId="2" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -7184,7 +7203,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{b78ac04e-2039-4f14-baa5-dbef1978e8b5}" type="VALUE">
+                    <a:fld id="{80c4c411-9b8f-44bb-a093-c5959731b008}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                   </a:p>
@@ -8067,7 +8086,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6cc60fe4-d4b8-4ef5-bf04-4d692277f3fc}" type="VALUE">
+                    <a:fld id="{1819dfde-566a-420a-a37a-11c5c0f975ed}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                   </a:p>
@@ -9613,7 +9632,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="2097405"/>
+        <a:off x="0" y="2125980"/>
         <a:ext cx="5384800" cy="2476500"/>
       </xdr:xfrm>
       <a:graphic>
@@ -9643,7 +9662,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5918200" y="2105025"/>
+        <a:off x="5918200" y="2133600"/>
         <a:ext cx="4912995" cy="2476500"/>
       </xdr:xfrm>
       <a:graphic>
@@ -9675,7 +9694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8036560" y="0"/>
-          <a:ext cx="2924175" cy="1914525"/>
+          <a:ext cx="2924175" cy="1943100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9750,7 +9769,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8825230" y="4772025"/>
+          <a:off x="8825230" y="4800600"/>
           <a:ext cx="1789430" cy="613410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9788,7 +9807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10974705" y="26035"/>
-          <a:ext cx="5055870" cy="2019300"/>
+          <a:ext cx="5055870" cy="2047875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12191,8 +12210,8 @@
   </sheetPr>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I84" sqref="$A1:$XFD1048576"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09523809523809" defaultRowHeight="15" customHeight="1"/>
@@ -13587,7 +13606,7 @@
       <c r="E120" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jLiZGFCeEkosyr57E2OrVc0PGOCETyqaaRHUwpYCrI6Zj2x1dm+MxGMy8q9Popk9H1ktcY8GzjX5VzyGpZj7ng==" saltValue="8hC4UDvf8FmgnSebHVid6A==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mYCvsJziJAgqgQKarRQ7xm9W4wWhCPyxH+qMxwQlD3PhBfzzadDegzqlmu8DHpGjNCYdB5jaIuHIgQgdL9b+Gw==" saltValue="DVolfaYcp7NpIK3Fe4qE1A==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
@@ -13616,7 +13635,7 @@
   </sheetPr>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -13661,7 +13680,7 @@
       <c r="R1" s="173"/>
       <c r="S1" s="173"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" ht="15.75" spans="1:19">
       <c r="A2" s="174" t="s">
         <v>289</v>
       </c>
@@ -13712,7 +13731,7 @@
       </c>
       <c r="S2" s="173"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" ht="15.75" spans="1:19">
       <c r="A3" s="174" t="s">
         <v>293</v>
       </c>
@@ -13771,7 +13790,7 @@
       </c>
       <c r="S3" s="173"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" ht="15.75" spans="1:19">
       <c r="A4" s="174" t="s">
         <v>294</v>
       </c>
@@ -14732,8 +14751,8 @@
   </sheetPr>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="AB99" sqref="AB99"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17253,7 +17272,7 @@
       <c r="Q65" s="169"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HWSY+zsF8EvYLcQTROuDzWDElVt2yM5GZFCWLsIWBisdNKSTAbS1mv2KHEEPSS4CcnbvvVIQLdbyzx+8jGLavA==" saltValue="E47YG20wXGuLGnPGkRYo6A==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ztc2eqELipNYPQ0ddilg/omBIGj/hURFJG3keC8T7prBTAIaxvgqg1GgyqPA8HE+ssAJ95iH7gjNkMCECQtR6g==" saltValue="W70vFCpOw3SB3J9Lv4eomw==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="5">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C3:D3"/>
@@ -17281,8 +17300,8 @@
   </sheetPr>
   <dimension ref="A1:AB141"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AB49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09523809523809" defaultRowHeight="13.5"/>
@@ -17304,84 +17323,84 @@
       <c r="C1" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="19">
-        <f>進捗実績値入力シート!D2</f>
-        <v>0</v>
+      <c r="D1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E1" s="20"/>
-      <c r="F1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,1),"m")&amp;"月"</f>
-        <v>1月</v>
+      <c r="F1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+1-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,2),"m")&amp;"月"</f>
-        <v>2月</v>
+      <c r="H1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+2-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,3),"m")&amp;"月"</f>
-        <v>3月</v>
+      <c r="J1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+3-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,4),"m")&amp;"月"</f>
-        <v>4月</v>
+      <c r="L1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+4-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,5),"m")&amp;"月"</f>
-        <v>5月</v>
+      <c r="N1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+5-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="P1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,6),"m")&amp;"月"</f>
-        <v>6月</v>
+      <c r="P1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+6-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="R1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,7),"m")&amp;"月"</f>
-        <v>7月</v>
+      <c r="R1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+7-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="T1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,8),"m")&amp;"月"</f>
-        <v>8月</v>
+      <c r="T1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+8-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="U1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,9),"m")&amp;"月"</f>
-        <v>9月</v>
+      <c r="V1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+9-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="W1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="X1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,10),"m")&amp;"月"</f>
-        <v>10月</v>
+      <c r="X1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+10-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="Z1" s="19" t="str">
-        <f>TEXT(EDATE($D$1,11),"m")&amp;"月"</f>
-        <v>11月</v>
+      <c r="Z1" s="19" t="e">
+        <f>MOD(--MID(スタート!B2,FIND("/",スタート!B2)+1,FIND("/",スタート!B2,FIND("/",スタート!B2)+1)-FIND("/",スタート!B2)-1)+11-1,12)+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AA1" s="20" t="s">
         <v>231</v>
@@ -22421,7 +22440,7 @@
       <c r="A141" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OzS2aTM5sSSv4Le+1ZUPqZrZqNbbBF35SnEkyJzlcEKFvToRjCBq5Vtp6dxRYBirXcbGrSavzRL2RFDynNQBSg==" saltValue="fUvUBZ2WV6LFLH5sUCGrNg==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YgI74YnWpA56fx05UEUnz3/rfIer2XZdCi3JvvZxEGOp+nCw36CLfH4UG63IQZApbFsMUQDZL2vPZTOwVoiwoQ==" saltValue="9aAtc4FeOYvtmuy/s8siDw==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="12">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>

--- a/server/templates/template.xlsx
+++ b/server/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="11"/>
+    <workbookView windowWidth="27945" windowHeight="11580" tabRatio="789" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>在庫</t>
   </si>
   <si>
-    <t>原価人１４</t>
+    <t>原価１４</t>
   </si>
   <si>
     <t>外注費</t>
   </si>
   <si>
-    <t>原価人１５</t>
+    <t>原価１５</t>
   </si>
   <si>
     <t>労務費</t>
@@ -391,7 +391,7 @@
     <t>超過手当</t>
   </si>
   <si>
-    <t>原価人１６</t>
+    <t>原価１６</t>
   </si>
   <si>
     <t>労務費内訳</t>
@@ -7203,9 +7203,14 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80c4c411-9b8f-44bb-a093-c5959731b008}" type="VALUE">
+                    <a:fld id="{d61f265c-7b2a-4edc-b10c-f8a864c1cf56}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
+                    <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8086,9 +8091,14 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1819dfde-566a-420a-a37a-11c5c0f975ed}" type="VALUE">
+                    <a:fld id="{7ec7cadf-7300-459e-a9ad-407de07cf0bf}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
+                    <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
+                      <a:cs typeface="+mn-ea"/>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -12210,8 +12220,8 @@
   </sheetPr>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09523809523809" defaultRowHeight="15" customHeight="1"/>
@@ -13606,7 +13616,7 @@
       <c r="E120" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mYCvsJziJAgqgQKarRQ7xm9W4wWhCPyxH+qMxwQlD3PhBfzzadDegzqlmu8DHpGjNCYdB5jaIuHIgQgdL9b+Gw==" saltValue="DVolfaYcp7NpIK3Fe4qE1A==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xakUIfUIBmHSpc0AiqOI2XvRElM2S2nsYjhn2e5nhlnzvleuWaHqdg8K44u8kXlz6R3rI3i5Dt6bvRL/LYWiRw==" saltValue="rqPjslEJuz4hjwV/7RKPfg==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
@@ -17300,7 +17310,7 @@
   </sheetPr>
   <dimension ref="A1:AB141"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
@@ -28197,8 +28207,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28622,7 +28632,7 @@
         <v>253</v>
       </c>
       <c r="L21" s="288">
-        <f>SUM(スタート!D43:D56)</f>
+        <f>SUM(スタート!D43:D58)</f>
         <v>0</v>
       </c>
       <c r="M21" s="11"/>
@@ -29055,7 +29065,7 @@
       <c r="N47" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tMjea2mKKCp7EHj/llV6dKoiR2OaangRaZxnxXbVd/kNkJXJEnBYL9sgPgzE6wwbBk98rn0jV/Y9eaVwfzg2aw==" saltValue="uzFtr6m4TRqdjOIY/pKdnA==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jCTyiv+wF/FOOWbsHqvFEs2hEFDTwRiyFvCRb+mrT2l1jQhoO5khtUFJqAya1pHYIyF9pVu6F2UFRrdd5Le1PA==" saltValue="toonn+zcEi0K5PciAmEQEw==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:H2"/>

--- a/server/templates/template.xlsx
+++ b/server/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11580" tabRatio="789" activeTab="7"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -7203,7 +7203,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{d61f265c-7b2a-4edc-b10c-f8a864c1cf56}" type="VALUE">
+                    <a:fld id="{35cf1fbb-babf-437b-90fe-dc96598cad05}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -8091,7 +8091,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7ec7cadf-7300-459e-a9ad-407de07cf0bf}" type="VALUE">
+                    <a:fld id="{ea8f61fa-f7b2-4c09-9b96-0e19e361c740}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -11054,7 +11054,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4406900" y="3927475"/>
+          <a:off x="4406900" y="3917950"/>
           <a:ext cx="558800" cy="467995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11298,7 +11298,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4618355" y="3952875"/>
+          <a:off x="4618355" y="3943350"/>
           <a:ext cx="617855" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11351,7 +11351,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4592955" y="2796540"/>
+          <a:off x="4592955" y="2787015"/>
           <a:ext cx="617855" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11404,7 +11404,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2934335" y="2796540"/>
+          <a:off x="2934335" y="2787015"/>
           <a:ext cx="617855" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11510,7 +11510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2630805" y="4044950"/>
+          <a:off x="2630805" y="4035425"/>
           <a:ext cx="3361055" cy="804545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11589,7 +11589,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11816080" y="7715250"/>
+          <a:off x="11816080" y="7705725"/>
           <a:ext cx="1862455" cy="626110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24568,8 +24568,8 @@
   </sheetPr>
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -24650,7 +24650,7 @@
       <c r="D3" s="350"/>
       <c r="E3" s="351"/>
       <c r="F3" s="349">
-        <f>'⑥製造（経費)'!I2+'⑤製造原価 (人）'!N2</f>
+        <f>'⑥製造（経費)'!I2</f>
         <v>0</v>
       </c>
       <c r="G3" s="352"/>
@@ -24873,7 +24873,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" ht="15.75" spans="1:22">
+    <row r="12" spans="1:22">
       <c r="A12" s="11"/>
       <c r="B12" s="353"/>
       <c r="C12" s="354"/>
@@ -24909,7 +24909,7 @@
       </c>
       <c r="G13" s="364"/>
       <c r="H13" s="349">
-        <f>(④経費!I2*1000000+③給料!N2*1000000)/1000000</f>
+        <f>④経費!I2</f>
         <v>0</v>
       </c>
       <c r="I13" s="364"/>
@@ -25600,7 +25600,7 @@
       <c r="V40" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rvu4HmdLxet1kBUyQ76Gs4kNMWGGJwMSCVq6G+IAgCB3U9DNlVz38RlJbDx6zrk4IRUeixVheSxQh2RV+ZFa0g==" saltValue="51NsnPRx1WMy2N8YFcKQ5A==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2bFiJCulgBz8SkCmlziayYk6UcW/RT0pq4dE1uKBp5mQ0qaQuheovygM2kfbsMatIoSBkDIPS2BVgL5BP1N9TA==" saltValue="glvT4vu6bKehDNwwmlc3rQ==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="21">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:I2"/>
@@ -28207,7 +28207,7 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>

--- a/server/templates/template.xlsx
+++ b/server/templates/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -4095,7 +4095,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="643">
+  <cellXfs count="645">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6235,10 +6235,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="199" fontId="49" fillId="0" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="199" fontId="49" fillId="0" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -6246,7 +6254,7 @@
     <xf numFmtId="180" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="199" fontId="49" fillId="18" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="199" fontId="49" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -7203,7 +7211,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35cf1fbb-babf-437b-90fe-dc96598cad05}" type="VALUE">
+                    <a:fld id="{876fec2c-7bb7-4623-b8eb-467b2b97250c}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -8091,7 +8099,7 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ea8f61fa-f7b2-4c09-9b96-0e19e361c740}" type="VALUE">
+                    <a:fld id="{acb58a4e-62c4-45f8-b2b5-1d687c696721}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
                     <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -10940,7 +10948,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="558800" cy="450868"/>
+    <xdr:ext cx="558800" cy="460393"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
@@ -10949,7 +10957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2663190" y="2765425"/>
-          <a:ext cx="558800" cy="450850"/>
+          <a:ext cx="558800" cy="460375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10993,7 +11001,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="558800" cy="450868"/>
+    <xdr:ext cx="558800" cy="460393"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
@@ -11002,7 +11010,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4423410" y="2774315"/>
-          <a:ext cx="558800" cy="450850"/>
+          <a:ext cx="558800" cy="460375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11054,7 +11062,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4406900" y="3917950"/>
+          <a:off x="4406900" y="3927475"/>
           <a:ext cx="558800" cy="467995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11298,7 +11306,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4618355" y="3943350"/>
+          <a:off x="4618355" y="3952875"/>
           <a:ext cx="617855" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11351,7 +11359,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4592955" y="2787015"/>
+          <a:off x="4592955" y="2796540"/>
           <a:ext cx="617855" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11404,7 +11412,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2934335" y="2787015"/>
+          <a:off x="2934335" y="2796540"/>
           <a:ext cx="617855" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11510,7 +11518,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2630805" y="4035425"/>
+          <a:off x="2630805" y="4044950"/>
           <a:ext cx="3361055" cy="804545"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11589,7 +11597,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11816080" y="7705725"/>
+          <a:off x="11816080" y="7715250"/>
           <a:ext cx="1862455" cy="626110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12220,8 +12228,8 @@
   </sheetPr>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09523809523809" defaultRowHeight="15" customHeight="1"/>
@@ -12640,210 +12648,210 @@
         <v>67</v>
       </c>
       <c r="C37" s="529"/>
-      <c r="D37" s="530"/>
+      <c r="D37" s="554"/>
     </row>
     <row r="38" customHeight="1" spans="1:4">
       <c r="A38" s="553" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="554" t="s">
+      <c r="B38" s="555" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="520"/>
-      <c r="D38" s="531"/>
+      <c r="D38" s="556"/>
     </row>
     <row r="39" customHeight="1" spans="1:4">
       <c r="A39" s="553" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="554" t="s">
+      <c r="B39" s="555" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="520"/>
-      <c r="D39" s="531"/>
+      <c r="D39" s="556"/>
     </row>
     <row r="40" customHeight="1" spans="1:4">
       <c r="A40" s="553" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="554" t="s">
+      <c r="B40" s="555" t="s">
         <v>73</v>
       </c>
       <c r="C40" s="520"/>
-      <c r="D40" s="531"/>
+      <c r="D40" s="556"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
       <c r="A41" s="553" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="554" t="s">
+      <c r="B41" s="555" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="520"/>
-      <c r="D41" s="531"/>
+      <c r="D41" s="556"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
       <c r="A42" s="553" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="555" t="s">
+      <c r="B42" s="557" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="556"/>
-      <c r="D42" s="557"/>
+      <c r="C42" s="558"/>
+      <c r="D42" s="559"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="558" t="s">
+      <c r="A43" s="560" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="559" t="s">
+      <c r="B43" s="561" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="560"/>
-      <c r="D43" s="561"/>
+      <c r="C43" s="562"/>
+      <c r="D43" s="563"/>
     </row>
     <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="562" t="s">
+      <c r="A44" s="564" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="563" t="s">
+      <c r="B44" s="565" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="564"/>
-      <c r="D44" s="565"/>
+      <c r="C44" s="566"/>
+      <c r="D44" s="567"/>
     </row>
     <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="562" t="s">
+      <c r="A45" s="564" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="566" t="s">
+      <c r="B45" s="568" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="567"/>
+      <c r="C45" s="569"/>
       <c r="D45" s="535"/>
     </row>
     <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="562" t="s">
+      <c r="A46" s="564" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="563" t="s">
+      <c r="B46" s="565" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="564"/>
-      <c r="D46" s="565"/>
+      <c r="C46" s="566"/>
+      <c r="D46" s="567"/>
     </row>
     <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="562" t="s">
+      <c r="A47" s="564" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="566" t="s">
+      <c r="B47" s="568" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="567"/>
+      <c r="C47" s="569"/>
       <c r="D47" s="535"/>
     </row>
     <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="562" t="s">
+      <c r="A48" s="564" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="568" t="s">
+      <c r="B48" s="570" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="569"/>
+      <c r="C48" s="571"/>
       <c r="D48" s="538"/>
     </row>
     <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="562" t="s">
+      <c r="A49" s="564" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="570" t="s">
+      <c r="B49" s="572" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="571"/>
-      <c r="D49" s="572"/>
+      <c r="C49" s="573"/>
+      <c r="D49" s="574"/>
     </row>
     <row r="50" customHeight="1" spans="1:4">
-      <c r="A50" s="562" t="s">
+      <c r="A50" s="564" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="573" t="s">
+      <c r="B50" s="575" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="567"/>
+      <c r="C50" s="569"/>
       <c r="D50" s="535"/>
     </row>
     <row r="51" customHeight="1" spans="1:4">
-      <c r="A51" s="562" t="s">
+      <c r="A51" s="564" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="574" t="s">
+      <c r="B51" s="576" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="575"/>
+      <c r="C51" s="577"/>
       <c r="D51" s="521"/>
     </row>
     <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="562" t="s">
+      <c r="A52" s="564" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="576" t="s">
+      <c r="B52" s="578" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="564"/>
-      <c r="D52" s="565"/>
+      <c r="C52" s="566"/>
+      <c r="D52" s="567"/>
     </row>
     <row r="53" customHeight="1" spans="1:4">
-      <c r="A53" s="562" t="s">
+      <c r="A53" s="564" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="573" t="s">
+      <c r="B53" s="575" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="567"/>
+      <c r="C53" s="569"/>
       <c r="D53" s="535"/>
     </row>
     <row r="54" customHeight="1" spans="1:4">
-      <c r="A54" s="562" t="s">
+      <c r="A54" s="564" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="574" t="s">
+      <c r="B54" s="576" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="575"/>
-      <c r="D54" s="577"/>
+      <c r="C54" s="577"/>
+      <c r="D54" s="579"/>
     </row>
     <row r="55" customHeight="1" spans="1:4">
-      <c r="A55" s="562" t="s">
+      <c r="A55" s="564" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="576" t="s">
+      <c r="B55" s="578" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="564"/>
-      <c r="D55" s="565"/>
+      <c r="C55" s="566"/>
+      <c r="D55" s="567"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
-      <c r="A56" s="562" t="s">
+      <c r="A56" s="564" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="573" t="s">
+      <c r="B56" s="575" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="567"/>
+      <c r="C56" s="569"/>
       <c r="D56" s="535"/>
       <c r="E56" s="40" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:5">
-      <c r="A57" s="562" t="s">
+      <c r="A57" s="564" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="576" t="s">
+      <c r="B57" s="578" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="564"/>
-      <c r="D57" s="578">
+      <c r="C57" s="566"/>
+      <c r="D57" s="580">
         <f>SUM(D60:D62)</f>
         <v>0</v>
       </c>
@@ -12852,387 +12860,387 @@
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:5">
-      <c r="A58" s="579" t="s">
+      <c r="A58" s="581" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="580" t="s">
+      <c r="B58" s="582" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="581"/>
-      <c r="D58" s="582"/>
+      <c r="C58" s="583"/>
+      <c r="D58" s="584"/>
       <c r="E58" s="40" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:5">
-      <c r="A59" s="583" t="s">
+      <c r="A59" s="585" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="584" t="s">
+      <c r="B59" s="586" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="585"/>
+      <c r="C59" s="587"/>
       <c r="D59" s="518"/>
       <c r="E59" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:5">
-      <c r="A60" s="583" t="s">
+      <c r="A60" s="585" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="586" t="s">
+      <c r="B60" s="588" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="587"/>
-      <c r="D60" s="565"/>
+      <c r="C60" s="589"/>
+      <c r="D60" s="567"/>
       <c r="E60" s="40"/>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="583" t="s">
+      <c r="A61" s="585" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="588" t="s">
+      <c r="B61" s="590" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="589"/>
+      <c r="C61" s="591"/>
       <c r="D61" s="535"/>
       <c r="E61" s="40" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:5">
-      <c r="A62" s="583" t="s">
+      <c r="A62" s="585" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="590" t="s">
+      <c r="B62" s="592" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="591"/>
+      <c r="C62" s="593"/>
       <c r="D62" s="538"/>
       <c r="E62" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="592" t="s">
+      <c r="A63" s="594" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="593" t="s">
+      <c r="B63" s="595" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="594"/>
-      <c r="D63" s="572"/>
-      <c r="E63" s="595"/>
-      <c r="F63" s="596" t="s">
+      <c r="C63" s="596"/>
+      <c r="D63" s="574"/>
+      <c r="E63" s="597"/>
+      <c r="F63" s="598" t="s">
         <v>115</v>
       </c>
-      <c r="G63" s="597" t="s">
+      <c r="G63" s="599" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="598" t="s">
+      <c r="A64" s="600" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="599" t="s">
+      <c r="B64" s="601" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="600"/>
+      <c r="C64" s="602"/>
       <c r="D64" s="535"/>
-      <c r="E64" s="601" t="s">
+      <c r="E64" s="603" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="602" t="s">
+      <c r="F64" s="604" t="s">
         <v>120</v>
       </c>
-      <c r="G64" s="603"/>
+      <c r="G64" s="605"/>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="598" t="s">
+      <c r="A65" s="600" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="604" t="s">
+      <c r="B65" s="606" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="605"/>
+      <c r="C65" s="607"/>
       <c r="D65" s="521"/>
-      <c r="E65" s="601" t="s">
+      <c r="E65" s="603" t="s">
         <v>119</v>
       </c>
-      <c r="F65" s="602" t="s">
+      <c r="F65" s="604" t="s">
         <v>123</v>
       </c>
-      <c r="G65" s="603"/>
+      <c r="G65" s="605"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="598" t="s">
+      <c r="A66" s="600" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="606" t="s">
+      <c r="B66" s="608" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="607"/>
-      <c r="D66" s="565"/>
-      <c r="E66" s="601" t="s">
+      <c r="C66" s="609"/>
+      <c r="D66" s="567"/>
+      <c r="E66" s="603" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="602"/>
-      <c r="G66" s="603"/>
+      <c r="F66" s="604"/>
+      <c r="G66" s="605"/>
     </row>
     <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="598" t="s">
+      <c r="A67" s="600" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="599" t="s">
+      <c r="B67" s="601" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="600"/>
+      <c r="C67" s="602"/>
       <c r="D67" s="535"/>
-      <c r="E67" s="601" t="s">
+      <c r="E67" s="603" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="608"/>
-      <c r="G67" s="582"/>
+      <c r="F67" s="610"/>
+      <c r="G67" s="584"/>
     </row>
     <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="598" t="s">
+      <c r="A68" s="600" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="609" t="s">
+      <c r="B68" s="611" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="610"/>
+      <c r="C68" s="612"/>
       <c r="D68" s="538"/>
-      <c r="E68" s="595"/>
-      <c r="F68" s="611" t="s">
+      <c r="E68" s="597"/>
+      <c r="F68" s="613" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="612"/>
+      <c r="G68" s="614"/>
     </row>
     <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="598" t="s">
+      <c r="A69" s="600" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="613" t="s">
+      <c r="B69" s="615" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="614"/>
-      <c r="D69" s="615"/>
-      <c r="E69" s="601" t="s">
+      <c r="C69" s="616"/>
+      <c r="D69" s="617"/>
+      <c r="E69" s="603" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="602" t="s">
+      <c r="F69" s="604" t="s">
         <v>134</v>
       </c>
-      <c r="G69" s="603"/>
+      <c r="G69" s="605"/>
     </row>
     <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="598" t="s">
+      <c r="A70" s="600" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="599" t="s">
+      <c r="B70" s="601" t="s">
         <v>136</v>
       </c>
       <c r="C70" s="529"/>
       <c r="D70" s="535"/>
-      <c r="E70" s="601" t="s">
+      <c r="E70" s="603" t="s">
         <v>133</v>
       </c>
-      <c r="F70" s="602"/>
-      <c r="G70" s="603"/>
+      <c r="F70" s="604"/>
+      <c r="G70" s="605"/>
     </row>
     <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="598" t="s">
+      <c r="A71" s="600" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="606" t="s">
+      <c r="B71" s="608" t="s">
         <v>138</v>
       </c>
       <c r="C71" s="523"/>
-      <c r="D71" s="565"/>
-      <c r="E71" s="601" t="s">
+      <c r="D71" s="567"/>
+      <c r="E71" s="603" t="s">
         <v>133</v>
       </c>
-      <c r="F71" s="602"/>
-      <c r="G71" s="603"/>
+      <c r="F71" s="604"/>
+      <c r="G71" s="605"/>
     </row>
     <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="598" t="s">
+      <c r="A72" s="600" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="599" t="s">
+      <c r="B72" s="601" t="s">
         <v>140</v>
       </c>
       <c r="C72" s="529"/>
       <c r="D72" s="535"/>
-      <c r="E72" s="601" t="s">
+      <c r="E72" s="603" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="608"/>
-      <c r="G72" s="582"/>
+      <c r="F72" s="610"/>
+      <c r="G72" s="584"/>
     </row>
     <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="598" t="s">
+      <c r="A73" s="600" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="606" t="s">
+      <c r="B73" s="608" t="s">
         <v>142</v>
       </c>
       <c r="C73" s="523"/>
-      <c r="D73" s="565"/>
-      <c r="E73" s="595"/>
-      <c r="F73" s="611" t="s">
+      <c r="D73" s="567"/>
+      <c r="E73" s="597"/>
+      <c r="F73" s="613" t="s">
         <v>143</v>
       </c>
-      <c r="G73" s="612"/>
+      <c r="G73" s="614"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="598" t="s">
+      <c r="A74" s="600" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="616" t="s">
+      <c r="B74" s="618" t="s">
         <v>145</v>
       </c>
       <c r="C74" s="526"/>
-      <c r="D74" s="603"/>
-      <c r="E74" s="601" t="s">
+      <c r="D74" s="605"/>
+      <c r="E74" s="603" t="s">
         <v>146</v>
       </c>
-      <c r="F74" s="602" t="s">
+      <c r="F74" s="604" t="s">
         <v>120</v>
       </c>
-      <c r="G74" s="603"/>
+      <c r="G74" s="605"/>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="598" t="s">
+      <c r="A75" s="600" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="616" t="s">
+      <c r="B75" s="618" t="s">
         <v>148</v>
       </c>
       <c r="C75" s="526"/>
-      <c r="D75" s="603"/>
-      <c r="E75" s="601" t="s">
+      <c r="D75" s="605"/>
+      <c r="E75" s="603" t="s">
         <v>146</v>
       </c>
-      <c r="F75" s="602" t="s">
+      <c r="F75" s="604" t="s">
         <v>149</v>
       </c>
-      <c r="G75" s="603"/>
+      <c r="G75" s="605"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="598" t="s">
+      <c r="A76" s="600" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="599" t="s">
+      <c r="B76" s="601" t="s">
         <v>151</v>
       </c>
       <c r="C76" s="529"/>
       <c r="D76" s="535"/>
-      <c r="E76" s="601" t="s">
+      <c r="E76" s="603" t="s">
         <v>146</v>
       </c>
-      <c r="F76" s="602"/>
-      <c r="G76" s="603"/>
+      <c r="F76" s="604"/>
+      <c r="G76" s="605"/>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="598" t="s">
+      <c r="A77" s="600" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="606" t="s">
+      <c r="B77" s="608" t="s">
         <v>153</v>
       </c>
       <c r="C77" s="523"/>
-      <c r="D77" s="565"/>
-      <c r="E77" s="601" t="s">
+      <c r="D77" s="567"/>
+      <c r="E77" s="603" t="s">
         <v>146</v>
       </c>
-      <c r="F77" s="608"/>
-      <c r="G77" s="582"/>
+      <c r="F77" s="610"/>
+      <c r="G77" s="584"/>
     </row>
     <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="598" t="s">
+      <c r="A78" s="600" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="616" t="s">
+      <c r="B78" s="618" t="s">
         <v>155</v>
       </c>
       <c r="C78" s="526"/>
-      <c r="D78" s="603"/>
-      <c r="E78" s="595"/>
-      <c r="F78" s="611" t="s">
+      <c r="D78" s="605"/>
+      <c r="E78" s="597"/>
+      <c r="F78" s="613" t="s">
         <v>156</v>
       </c>
-      <c r="G78" s="612"/>
+      <c r="G78" s="614"/>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="598" t="s">
+      <c r="A79" s="600" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="599" t="s">
+      <c r="B79" s="601" t="s">
         <v>158</v>
       </c>
       <c r="C79" s="529"/>
       <c r="D79" s="535"/>
-      <c r="E79" s="617" t="s">
+      <c r="E79" s="619" t="s">
         <v>159</v>
       </c>
-      <c r="F79" s="602" t="s">
+      <c r="F79" s="604" t="s">
         <v>160</v>
       </c>
-      <c r="G79" s="603"/>
+      <c r="G79" s="605"/>
     </row>
     <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="598" t="s">
+      <c r="A80" s="600" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="606" t="s">
+      <c r="B80" s="608" t="s">
         <v>162</v>
       </c>
       <c r="C80" s="523"/>
-      <c r="D80" s="565"/>
-      <c r="E80" s="617" t="s">
+      <c r="D80" s="567"/>
+      <c r="E80" s="619" t="s">
         <v>159</v>
       </c>
-      <c r="F80" s="602"/>
-      <c r="G80" s="603"/>
+      <c r="F80" s="604"/>
+      <c r="G80" s="605"/>
     </row>
     <row r="81" customHeight="1" spans="1:7">
-      <c r="A81" s="598" t="s">
+      <c r="A81" s="600" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="599" t="s">
+      <c r="B81" s="601" t="s">
         <v>164</v>
       </c>
       <c r="C81" s="529"/>
       <c r="D81" s="535"/>
-      <c r="E81" s="617" t="s">
+      <c r="E81" s="619" t="s">
         <v>159</v>
       </c>
-      <c r="F81" s="602"/>
-      <c r="G81" s="603"/>
+      <c r="F81" s="604"/>
+      <c r="G81" s="605"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="598" t="s">
+      <c r="A82" s="600" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="606" t="s">
+      <c r="B82" s="608" t="s">
         <v>166</v>
       </c>
       <c r="C82" s="523"/>
-      <c r="D82" s="565"/>
-      <c r="E82" s="618" t="s">
+      <c r="D82" s="567"/>
+      <c r="E82" s="620" t="s">
         <v>159</v>
       </c>
-      <c r="F82" s="608"/>
-      <c r="G82" s="582"/>
+      <c r="F82" s="610"/>
+      <c r="G82" s="584"/>
     </row>
     <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="598" t="s">
+      <c r="A83" s="600" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="599" t="s">
+      <c r="B83" s="601" t="s">
         <v>168</v>
       </c>
       <c r="C83" s="529"/>
@@ -13242,10 +13250,10 @@
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="598" t="s">
+      <c r="A84" s="600" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="604" t="s">
+      <c r="B84" s="606" t="s">
         <v>170</v>
       </c>
       <c r="C84" s="520"/>
@@ -13255,10 +13263,10 @@
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="598" t="s">
+      <c r="A85" s="600" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="604" t="s">
+      <c r="B85" s="606" t="s">
         <v>172</v>
       </c>
       <c r="C85" s="520"/>
@@ -13268,10 +13276,10 @@
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="598" t="s">
+      <c r="A86" s="600" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="604" t="s">
+      <c r="B86" s="606" t="s">
         <v>174</v>
       </c>
       <c r="C86" s="520"/>
@@ -13281,10 +13289,10 @@
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="598" t="s">
+      <c r="A87" s="600" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="604" t="s">
+      <c r="B87" s="606" t="s">
         <v>176</v>
       </c>
       <c r="C87" s="520"/>
@@ -13294,10 +13302,10 @@
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="598" t="s">
+      <c r="A88" s="600" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="604" t="s">
+      <c r="B88" s="606" t="s">
         <v>178</v>
       </c>
       <c r="C88" s="520"/>
@@ -13307,10 +13315,10 @@
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="598" t="s">
+      <c r="A89" s="600" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="604" t="s">
+      <c r="B89" s="606" t="s">
         <v>180</v>
       </c>
       <c r="C89" s="520"/>
@@ -13320,10 +13328,10 @@
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="598" t="s">
+      <c r="A90" s="600" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="604" t="s">
+      <c r="B90" s="606" t="s">
         <v>182</v>
       </c>
       <c r="C90" s="520"/>
@@ -13333,10 +13341,10 @@
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="598" t="s">
+      <c r="A91" s="600" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="604" t="s">
+      <c r="B91" s="606" t="s">
         <v>184</v>
       </c>
       <c r="C91" s="520"/>
@@ -13346,10 +13354,10 @@
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="598" t="s">
+      <c r="A92" s="600" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="604" t="s">
+      <c r="B92" s="606" t="s">
         <v>186</v>
       </c>
       <c r="C92" s="520"/>
@@ -13359,10 +13367,10 @@
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="598" t="s">
+      <c r="A93" s="600" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="604" t="s">
+      <c r="B93" s="606" t="s">
         <v>188</v>
       </c>
       <c r="C93" s="520"/>
@@ -13372,10 +13380,10 @@
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="598" t="s">
+      <c r="A94" s="600" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="604" t="s">
+      <c r="B94" s="606" t="s">
         <v>190</v>
       </c>
       <c r="C94" s="520"/>
@@ -13385,10 +13393,10 @@
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="598" t="s">
+      <c r="A95" s="600" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="604" t="s">
+      <c r="B95" s="606" t="s">
         <v>192</v>
       </c>
       <c r="C95" s="520"/>
@@ -13398,10 +13406,10 @@
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="598" t="s">
+      <c r="A96" s="600" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="604" t="s">
+      <c r="B96" s="606" t="s">
         <v>194</v>
       </c>
       <c r="C96" s="520"/>
@@ -13411,10 +13419,10 @@
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="598" t="s">
+      <c r="A97" s="600" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="604" t="s">
+      <c r="B97" s="606" t="s">
         <v>196</v>
       </c>
       <c r="C97" s="520"/>
@@ -13424,10 +13432,10 @@
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="598" t="s">
+      <c r="A98" s="600" t="s">
         <v>197</v>
       </c>
-      <c r="B98" s="604" t="s">
+      <c r="B98" s="606" t="s">
         <v>112</v>
       </c>
       <c r="C98" s="520"/>
@@ -13437,10 +13445,10 @@
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="619" t="s">
+      <c r="A99" s="621" t="s">
         <v>198</v>
       </c>
-      <c r="B99" s="609" t="s">
+      <c r="B99" s="611" t="s">
         <v>199</v>
       </c>
       <c r="C99" s="537"/>
@@ -13450,115 +13458,115 @@
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:5">
-      <c r="A100" s="620" t="s">
+      <c r="A100" s="622" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="621" t="s">
+      <c r="B100" s="623" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="622"/>
-      <c r="D100" s="623"/>
+      <c r="C100" s="624"/>
+      <c r="D100" s="625"/>
       <c r="E100" s="40" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="624" t="s">
+      <c r="A101" s="626" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="625" t="s">
+      <c r="B101" s="627" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="626"/>
+      <c r="C101" s="628"/>
       <c r="D101" s="541"/>
       <c r="E101" s="40" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="601" t="s">
+      <c r="A102" s="603" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="611" t="s">
+      <c r="B102" s="613" t="s">
         <v>204</v>
       </c>
       <c r="C102" s="526">
         <f>SUM(G64:G67)</f>
         <v>0</v>
       </c>
-      <c r="D102" s="627"/>
-      <c r="E102" s="628" t="s">
+      <c r="D102" s="629"/>
+      <c r="E102" s="630" t="s">
         <v>205</v>
       </c>
-      <c r="F102" s="629" t="s">
+      <c r="F102" s="631" t="s">
         <v>206</v>
       </c>
-      <c r="G102" s="630">
+      <c r="G102" s="632">
         <f>SUM(D12:D58)+SUM(D63:D100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A103" s="601" t="s">
+      <c r="A103" s="603" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="611" t="s">
+      <c r="B103" s="613" t="s">
         <v>207</v>
       </c>
       <c r="C103" s="526">
         <f>SUM(G69:G72)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="627"/>
-      <c r="E103" s="631"/>
-      <c r="F103" s="632" t="s">
+      <c r="D103" s="629"/>
+      <c r="E103" s="633"/>
+      <c r="F103" s="634" t="s">
         <v>208</v>
       </c>
-      <c r="G103" s="633">
+      <c r="G103" s="635">
         <f>SUM(C12:C100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" ht="18" customHeight="1" spans="1:7">
-      <c r="A104" s="634"/>
-      <c r="B104" s="611" t="s">
+      <c r="A104" s="636"/>
+      <c r="B104" s="613" t="s">
         <v>209</v>
       </c>
       <c r="C104" s="526">
         <f>G105+C102-C103</f>
         <v>0</v>
       </c>
-      <c r="D104" s="627"/>
-      <c r="E104" s="635"/>
-      <c r="F104" s="632"/>
-      <c r="G104" s="633"/>
+      <c r="D104" s="629"/>
+      <c r="E104" s="637"/>
+      <c r="F104" s="634"/>
+      <c r="G104" s="635"/>
     </row>
     <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="601" t="s">
+      <c r="A105" s="603" t="s">
         <v>146</v>
       </c>
-      <c r="B105" s="611" t="s">
+      <c r="B105" s="613" t="s">
         <v>210</v>
       </c>
       <c r="C105" s="526">
         <f>SUM(G74:G77)</f>
         <v>0</v>
       </c>
-      <c r="D105" s="627"/>
-      <c r="E105" s="635"/>
-      <c r="F105" s="632" t="s">
+      <c r="D105" s="629"/>
+      <c r="E105" s="637"/>
+      <c r="F105" s="634" t="s">
         <v>211</v>
       </c>
-      <c r="G105" s="633">
+      <c r="G105" s="635">
         <f>C7-G103</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A106" s="601" t="s">
+      <c r="A106" s="603" t="s">
         <v>159</v>
       </c>
-      <c r="B106" s="636" t="s">
+      <c r="B106" s="638" t="s">
         <v>212</v>
       </c>
       <c r="C106" s="544">
@@ -13566,39 +13574,39 @@
         <v>0</v>
       </c>
       <c r="D106" s="545"/>
-      <c r="E106" s="637"/>
-      <c r="F106" s="638" t="s">
+      <c r="E106" s="639"/>
+      <c r="F106" s="640" t="s">
         <v>213</v>
       </c>
-      <c r="G106" s="639">
+      <c r="G106" s="641">
         <f>C104+C105-C106</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:3">
-      <c r="A108" s="640"/>
-      <c r="B108" s="640"/>
-      <c r="C108" s="641"/>
+      <c r="A108" s="642"/>
+      <c r="B108" s="642"/>
+      <c r="C108" s="643"/>
     </row>
     <row r="109" customHeight="1" spans="1:3">
-      <c r="A109" s="640"/>
-      <c r="B109" s="640"/>
-      <c r="C109" s="641"/>
+      <c r="A109" s="642"/>
+      <c r="B109" s="642"/>
+      <c r="C109" s="643"/>
     </row>
     <row r="110" customHeight="1" spans="1:3">
-      <c r="A110" s="642"/>
-      <c r="B110" s="640"/>
-      <c r="C110" s="641"/>
+      <c r="A110" s="644"/>
+      <c r="B110" s="642"/>
+      <c r="C110" s="643"/>
     </row>
     <row r="111" customHeight="1" spans="1:3">
-      <c r="A111" s="642"/>
-      <c r="B111" s="640"/>
-      <c r="C111" s="641"/>
+      <c r="A111" s="644"/>
+      <c r="B111" s="642"/>
+      <c r="C111" s="643"/>
     </row>
     <row r="112" customHeight="1" spans="1:3">
-      <c r="A112" s="642"/>
-      <c r="B112" s="640"/>
-      <c r="C112" s="641"/>
+      <c r="A112" s="644"/>
+      <c r="B112" s="642"/>
+      <c r="C112" s="643"/>
     </row>
     <row r="116" customHeight="1" spans="5:5">
       <c r="E116" s="40"/>
@@ -13616,7 +13624,7 @@
       <c r="E120" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xakUIfUIBmHSpc0AiqOI2XvRElM2S2nsYjhn2e5nhlnzvleuWaHqdg8K44u8kXlz6R3rI3i5Dt6bvRL/LYWiRw==" saltValue="rqPjslEJuz4hjwV/7RKPfg==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0iE5xjurpA5UoMp1lId15bSpBY2H4mPK3bxAEetX10HmuQwzqPHT4+29ln62AyQveoqzvuFL2TvXIbwOQAPxtA==" saltValue="tkbbikINZ+KOr7WK7XzLpQ==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
@@ -14761,8 +14769,8 @@
   </sheetPr>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17282,7 +17290,7 @@
       <c r="Q65" s="169"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ztc2eqELipNYPQ0ddilg/omBIGj/hURFJG3keC8T7prBTAIaxvgqg1GgyqPA8HE+ssAJ95iH7gjNkMCECQtR6g==" saltValue="W70vFCpOw3SB3J9Lv4eomw==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kmCmKZ5wIhIPdSV4rVFaGnF1POxnzRwrCFtzttEoRqyopzxoDvIwCIrM3SmaB8pYqkNYWBvMFz4rdNKgLVEHyQ==" saltValue="L0SVpk6ki1/Qh2MAsF2Uug==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="5">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C3:D3"/>
@@ -24568,7 +24576,7 @@
   </sheetPr>
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:I9"/>
     </sheetView>
   </sheetViews>
@@ -24873,7 +24881,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" ht="15.75" spans="1:22">
       <c r="A12" s="11"/>
       <c r="B12" s="353"/>
       <c r="C12" s="354"/>
@@ -26451,7 +26459,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28208,7 +28216,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -29065,7 +29073,7 @@
       <c r="N47" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jCTyiv+wF/FOOWbsHqvFEs2hEFDTwRiyFvCRb+mrT2l1jQhoO5khtUFJqAya1pHYIyF9pVu6F2UFRrdd5Le1PA==" saltValue="toonn+zcEi0K5PciAmEQEw==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UjLRcFHCA0sLRT+yQvITMwxaTJdEFEvBdjKTkkkQj/ZJiIYTpFmnkHUvRg3C7lTCoMkbmsMzjTbaXovRVZ370g==" saltValue="k/Ld7ZqbooF4LfBY2tJFPw==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:H2"/>
